--- a/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.91583856925384</v>
+        <v>25.91583856925385</v>
       </c>
       <c r="C2">
-        <v>22.35082077021918</v>
+        <v>22.35082077021923</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -427,10 +427,10 @@
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.8474872253925</v>
+        <v>20.84748722539255</v>
       </c>
       <c r="H2">
-        <v>14.67116787177737</v>
+        <v>14.67116787177736</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.10379777405386</v>
+        <v>24.10379777405391</v>
       </c>
       <c r="C3">
-        <v>20.74970159091043</v>
+        <v>20.74970159091054</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.16109713808369</v>
+        <v>28.16109713808372</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>19.75803349457645</v>
+        <v>19.75803349457641</v>
       </c>
       <c r="H3">
-        <v>14.35851717340186</v>
+        <v>14.35851717340178</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.93623864129611</v>
+        <v>22.93623864129615</v>
       </c>
       <c r="C4">
-        <v>19.72229037891671</v>
+        <v>19.72229037891692</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.67536110369323</v>
+        <v>26.67536110369319</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.11785069237418</v>
+        <v>19.1178506923742</v>
       </c>
       <c r="H4">
-        <v>14.21061585714031</v>
+        <v>14.2106158571403</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>22.44631884889517</v>
       </c>
       <c r="C5">
-        <v>19.29212000259191</v>
+        <v>19.29212000259188</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.05591109168822</v>
+        <v>26.05591109168818</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>18.86411856635677</v>
+        <v>18.86411856635672</v>
       </c>
       <c r="H5">
-        <v>14.16064090989329</v>
+        <v>14.16064090989324</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.36410615860263</v>
+        <v>22.36410615860271</v>
       </c>
       <c r="C6">
-        <v>19.21998699746367</v>
+        <v>19.21998699746348</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.95218555559395</v>
+        <v>25.952185555594</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>18.82241676092969</v>
+        <v>18.82241676092972</v>
       </c>
       <c r="H6">
-        <v>14.15294099232768</v>
+        <v>14.15294099232761</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92968901070477</v>
+        <v>22.92968901070479</v>
       </c>
       <c r="C7">
-        <v>19.71653591404399</v>
+        <v>19.71653591404417</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>26.66706462084704</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
         <v>19.11439990326499</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.30225629690194</v>
+        <v>25.30225629690193</v>
       </c>
       <c r="C8">
-        <v>21.80773083925324</v>
+        <v>21.80773083925317</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.70078888961107</v>
+        <v>29.70078888961102</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.46580978654387</v>
+        <v>20.46580978654384</v>
       </c>
       <c r="H8">
-        <v>14.55375613724931</v>
+        <v>14.55375613724926</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>29.5347725237012</v>
       </c>
       <c r="C9">
-        <v>25.57502934137528</v>
+        <v>25.57502934137539</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.27272765848947</v>
+        <v>35.27272765848959</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>23.60939108809</v>
+        <v>23.60939108809007</v>
       </c>
       <c r="H9">
-        <v>15.61142347729373</v>
+        <v>15.6114234772938</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.41445623411702</v>
+        <v>32.41445623411699</v>
       </c>
       <c r="C10">
-        <v>28.16950264389961</v>
+        <v>28.16950264389965</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>39.20465892304745</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>37.72874519847369</v>
       </c>
       <c r="G10">
-        <v>26.4136144432139</v>
+        <v>26.41361444321387</v>
       </c>
       <c r="H10">
-        <v>16.84182991300005</v>
+        <v>16.84182991300001</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.6818323483713</v>
+        <v>33.68183234837125</v>
       </c>
       <c r="C11">
-        <v>29.32061489636473</v>
+        <v>29.32061489636487</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.97810451804748</v>
+        <v>40.97810451804741</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>27.7042984682329</v>
+        <v>27.7042984682328</v>
       </c>
       <c r="H11">
-        <v>17.70654920019515</v>
+        <v>17.70654920019507</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.15638508730882</v>
+        <v>34.15638508730896</v>
       </c>
       <c r="C12">
-        <v>29.75321743786674</v>
+        <v>29.75321743786679</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.64963119898812</v>
+        <v>41.64963119898831</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>28.19649229638532</v>
+        <v>28.19649229638561</v>
       </c>
       <c r="H12">
-        <v>18.03952733330476</v>
+        <v>18.03952733330502</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.05440699954715</v>
+        <v>34.05440699954711</v>
       </c>
       <c r="C13">
-        <v>29.66017910317614</v>
+        <v>29.66017910317624</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.50496759541688</v>
+        <v>41.50496759541686</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>28.09031211041379</v>
+        <v>28.09031211041376</v>
       </c>
       <c r="H13">
-        <v>17.96755194057741</v>
+        <v>17.96755194057739</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.7209769295445</v>
+        <v>33.72097692954462</v>
       </c>
       <c r="C14">
-        <v>29.3562656645479</v>
+        <v>29.356265664548</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.0333379743022</v>
+        <v>41.03333797430224</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>27.7447139375352</v>
+        <v>27.74471393753529</v>
       </c>
       <c r="H14">
-        <v>17.73382680126202</v>
+        <v>17.73382680126208</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.5160664300107</v>
+        <v>33.51606643001055</v>
       </c>
       <c r="C15">
-        <v>29.16971012196966</v>
+        <v>29.16971012196962</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.744518999707</v>
+        <v>40.74451899970694</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154518</v>
       </c>
       <c r="G15">
-        <v>27.53351739302981</v>
+        <v>27.53351739302964</v>
       </c>
       <c r="H15">
-        <v>17.59141350752146</v>
+        <v>17.59141350752132</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>32.33083362716449</v>
       </c>
       <c r="C16">
-        <v>28.09376035438304</v>
+        <v>28.09376035438303</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.08862610935217</v>
+        <v>39.08862610935221</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,7 +962,7 @@
         <v>26.3296686727451</v>
       </c>
       <c r="H16">
-        <v>16.78603933782975</v>
+        <v>16.78603933782977</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.59330703733773</v>
+        <v>31.5933070373377</v>
       </c>
       <c r="C17">
-        <v>27.42681475678702</v>
+        <v>27.42681475678708</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.07026778441919</v>
+        <v>38.07026778441922</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>25.59579414099553</v>
+        <v>25.5957941409955</v>
       </c>
       <c r="H17">
-        <v>16.33857673660295</v>
+        <v>16.33857673660296</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.16503803878831</v>
+        <v>31.16503803878837</v>
       </c>
       <c r="C18">
-        <v>27.04040071602847</v>
+        <v>27.04040071602841</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.48294907199933</v>
+        <v>37.48294907199934</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>25.17500760318532</v>
+        <v>25.17500760318541</v>
       </c>
       <c r="H18">
-        <v>16.17575229486583</v>
+        <v>16.17575229486581</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.01931519798921</v>
+        <v>31.01931519798929</v>
       </c>
       <c r="C19">
-        <v>26.90906180130845</v>
+        <v>26.90906180130846</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.28376326848386</v>
+        <v>37.2837632684839</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>25.03272982672661</v>
+        <v>25.03272982672673</v>
       </c>
       <c r="H19">
-        <v>16.12173169158864</v>
+        <v>16.1217316915887</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.67223357386264</v>
+        <v>31.67223357386262</v>
       </c>
       <c r="C20">
-        <v>27.4980966805935</v>
+        <v>27.49809668059363</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.17882396213064</v>
+        <v>38.17882396213066</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>25.67377175045826</v>
+        <v>25.67377175045843</v>
       </c>
       <c r="H20">
-        <v>16.36924504451418</v>
+        <v>16.36924504451433</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.8190525060086</v>
+        <v>33.81905250600858</v>
       </c>
       <c r="C21">
-        <v>29.4456138424183</v>
+        <v>29.44561384241807</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>27.84611906967137</v>
+        <v>27.84611906967133</v>
       </c>
       <c r="H21">
-        <v>17.802319270106</v>
+        <v>17.80231927010602</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.19126857671301</v>
+        <v>35.19126857671296</v>
       </c>
       <c r="C22">
-        <v>30.69977267564014</v>
+        <v>30.69977267564012</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.12915913713269</v>
+        <v>43.12915913713266</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>29.28680985305894</v>
+        <v>29.28680985305895</v>
       </c>
       <c r="H22">
-        <v>18.78293139145566</v>
+        <v>18.78293139145568</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.46142096205927</v>
+        <v>34.46142096205938</v>
       </c>
       <c r="C23">
-        <v>30.03176176457843</v>
+        <v>30.03176176457837</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.08353648818802</v>
+        <v>42.08353648818805</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>28.5154439309065</v>
+        <v>28.51544393090665</v>
       </c>
       <c r="H23">
-        <v>18.25619191152676</v>
+        <v>18.2561919115269</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.63656419504964</v>
+        <v>31.63656419504969</v>
       </c>
       <c r="C24">
-        <v>27.46587946347499</v>
+        <v>27.46587946347497</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.12975163421098</v>
+        <v>38.12975163421108</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>25.63851465208594</v>
+        <v>25.63851465208598</v>
       </c>
       <c r="H24">
-        <v>16.35535960507654</v>
+        <v>16.35535960507659</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.43228347128566</v>
+        <v>28.43228347128562</v>
       </c>
       <c r="C25">
-        <v>24.58878858150017</v>
+        <v>24.58878858150014</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.7994716756397</v>
+        <v>33.79947167563974</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127059</v>
       </c>
       <c r="G25">
-        <v>22.58337130150041</v>
+        <v>22.58337130150055</v>
       </c>
       <c r="H25">
-        <v>15.27956998395318</v>
+        <v>15.27956998395328</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.91583856925385</v>
+        <v>25.91583856925384</v>
       </c>
       <c r="C2">
-        <v>22.35082077021923</v>
+        <v>22.35082077021918</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -427,10 +427,10 @@
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.84748722539255</v>
+        <v>20.8474872253925</v>
       </c>
       <c r="H2">
-        <v>14.67116787177736</v>
+        <v>14.67116787177737</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.10379777405391</v>
+        <v>24.10379777405386</v>
       </c>
       <c r="C3">
-        <v>20.74970159091054</v>
+        <v>20.74970159091043</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.16109713808372</v>
+        <v>28.16109713808369</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>19.75803349457641</v>
+        <v>19.75803349457645</v>
       </c>
       <c r="H3">
-        <v>14.35851717340178</v>
+        <v>14.35851717340186</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.93623864129615</v>
+        <v>22.93623864129611</v>
       </c>
       <c r="C4">
-        <v>19.72229037891692</v>
+        <v>19.72229037891671</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.67536110369319</v>
+        <v>26.67536110369323</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.1178506923742</v>
+        <v>19.11785069237418</v>
       </c>
       <c r="H4">
-        <v>14.2106158571403</v>
+        <v>14.21061585714031</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>22.44631884889517</v>
       </c>
       <c r="C5">
-        <v>19.29212000259188</v>
+        <v>19.29212000259191</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.05591109168818</v>
+        <v>26.05591109168822</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>18.86411856635672</v>
+        <v>18.86411856635677</v>
       </c>
       <c r="H5">
-        <v>14.16064090989324</v>
+        <v>14.16064090989329</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.36410615860271</v>
+        <v>22.36410615860263</v>
       </c>
       <c r="C6">
-        <v>19.21998699746348</v>
+        <v>19.21998699746367</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.952185555594</v>
+        <v>25.95218555559395</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>18.82241676092972</v>
+        <v>18.82241676092969</v>
       </c>
       <c r="H6">
-        <v>14.15294099232761</v>
+        <v>14.15294099232768</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92968901070479</v>
+        <v>22.92968901070477</v>
       </c>
       <c r="C7">
-        <v>19.71653591404417</v>
+        <v>19.71653591404399</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>26.66706462084704</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
         <v>19.11439990326499</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.30225629690193</v>
+        <v>25.30225629690194</v>
       </c>
       <c r="C8">
-        <v>21.80773083925317</v>
+        <v>21.80773083925324</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.70078888961102</v>
+        <v>29.70078888961107</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.46580978654384</v>
+        <v>20.46580978654387</v>
       </c>
       <c r="H8">
-        <v>14.55375613724926</v>
+        <v>14.55375613724931</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>29.5347725237012</v>
       </c>
       <c r="C9">
-        <v>25.57502934137539</v>
+        <v>25.57502934137528</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.27272765848959</v>
+        <v>35.27272765848947</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>23.60939108809007</v>
+        <v>23.60939108809</v>
       </c>
       <c r="H9">
-        <v>15.6114234772938</v>
+        <v>15.61142347729373</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.41445623411699</v>
+        <v>32.41445623411702</v>
       </c>
       <c r="C10">
-        <v>28.16950264389965</v>
+        <v>28.16950264389961</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>39.20465892304745</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>26.41361444321387</v>
+        <v>26.4136144432139</v>
       </c>
       <c r="H10">
-        <v>16.84182991300001</v>
+        <v>16.84182991300005</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.68183234837125</v>
+        <v>33.6818323483713</v>
       </c>
       <c r="C11">
-        <v>29.32061489636487</v>
+        <v>29.32061489636473</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.97810451804741</v>
+        <v>40.97810451804748</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>27.7042984682328</v>
+        <v>27.7042984682329</v>
       </c>
       <c r="H11">
-        <v>17.70654920019507</v>
+        <v>17.70654920019515</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.15638508730896</v>
+        <v>34.15638508730882</v>
       </c>
       <c r="C12">
-        <v>29.75321743786679</v>
+        <v>29.75321743786674</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.64963119898831</v>
+        <v>41.64963119898812</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>28.19649229638561</v>
+        <v>28.19649229638532</v>
       </c>
       <c r="H12">
-        <v>18.03952733330502</v>
+        <v>18.03952733330476</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.05440699954711</v>
+        <v>34.05440699954715</v>
       </c>
       <c r="C13">
-        <v>29.66017910317624</v>
+        <v>29.66017910317614</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.50496759541686</v>
+        <v>41.50496759541688</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>28.09031211041376</v>
+        <v>28.09031211041379</v>
       </c>
       <c r="H13">
-        <v>17.96755194057739</v>
+        <v>17.96755194057741</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.72097692954462</v>
+        <v>33.7209769295445</v>
       </c>
       <c r="C14">
-        <v>29.356265664548</v>
+        <v>29.3562656645479</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.03333797430224</v>
+        <v>41.0333379743022</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>39.19167637503958</v>
       </c>
       <c r="G14">
-        <v>27.74471393753529</v>
+        <v>27.7447139375352</v>
       </c>
       <c r="H14">
-        <v>17.73382680126208</v>
+        <v>17.73382680126202</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.51606643001055</v>
+        <v>33.5160664300107</v>
       </c>
       <c r="C15">
-        <v>29.16971012196962</v>
+        <v>29.16971012196966</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.74451899970694</v>
+        <v>40.744518999707</v>
       </c>
       <c r="F15">
-        <v>38.96319309154518</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>27.53351739302964</v>
+        <v>27.53351739302981</v>
       </c>
       <c r="H15">
-        <v>17.59141350752132</v>
+        <v>17.59141350752146</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>32.33083362716449</v>
       </c>
       <c r="C16">
-        <v>28.09376035438303</v>
+        <v>28.09376035438304</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.08862610935221</v>
+        <v>39.08862610935217</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,7 +962,7 @@
         <v>26.3296686727451</v>
       </c>
       <c r="H16">
-        <v>16.78603933782977</v>
+        <v>16.78603933782975</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.5933070373377</v>
+        <v>31.59330703733773</v>
       </c>
       <c r="C17">
-        <v>27.42681475678708</v>
+        <v>27.42681475678702</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.07026778441922</v>
+        <v>38.07026778441919</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>25.5957941409955</v>
+        <v>25.59579414099553</v>
       </c>
       <c r="H17">
-        <v>16.33857673660296</v>
+        <v>16.33857673660295</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.16503803878837</v>
+        <v>31.16503803878831</v>
       </c>
       <c r="C18">
-        <v>27.04040071602841</v>
+        <v>27.04040071602847</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.48294907199934</v>
+        <v>37.48294907199933</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>25.17500760318541</v>
+        <v>25.17500760318532</v>
       </c>
       <c r="H18">
-        <v>16.17575229486581</v>
+        <v>16.17575229486583</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.01931519798929</v>
+        <v>31.01931519798921</v>
       </c>
       <c r="C19">
-        <v>26.90906180130846</v>
+        <v>26.90906180130845</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.2837632684839</v>
+        <v>37.28376326848386</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>25.03272982672673</v>
+        <v>25.03272982672661</v>
       </c>
       <c r="H19">
-        <v>16.1217316915887</v>
+        <v>16.12173169158864</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.67223357386262</v>
+        <v>31.67223357386264</v>
       </c>
       <c r="C20">
-        <v>27.49809668059363</v>
+        <v>27.4980966805935</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.17882396213066</v>
+        <v>38.17882396213064</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>25.67377175045843</v>
+        <v>25.67377175045826</v>
       </c>
       <c r="H20">
-        <v>16.36924504451433</v>
+        <v>16.36924504451418</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.81905250600858</v>
+        <v>33.8190525060086</v>
       </c>
       <c r="C21">
-        <v>29.44561384241807</v>
+        <v>29.4456138424183</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>27.84611906967133</v>
+        <v>27.84611906967137</v>
       </c>
       <c r="H21">
-        <v>17.80231927010602</v>
+        <v>17.802319270106</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.19126857671296</v>
+        <v>35.19126857671301</v>
       </c>
       <c r="C22">
-        <v>30.69977267564012</v>
+        <v>30.69977267564014</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.12915913713266</v>
+        <v>43.12915913713269</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>29.28680985305895</v>
+        <v>29.28680985305894</v>
       </c>
       <c r="H22">
-        <v>18.78293139145568</v>
+        <v>18.78293139145566</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.46142096205938</v>
+        <v>34.46142096205927</v>
       </c>
       <c r="C23">
-        <v>30.03176176457837</v>
+        <v>30.03176176457843</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.08353648818805</v>
+        <v>42.08353648818802</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>28.51544393090665</v>
+        <v>28.5154439309065</v>
       </c>
       <c r="H23">
-        <v>18.2561919115269</v>
+        <v>18.25619191152676</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.63656419504969</v>
+        <v>31.63656419504964</v>
       </c>
       <c r="C24">
-        <v>27.46587946347497</v>
+        <v>27.46587946347499</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.12975163421108</v>
+        <v>38.12975163421098</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>25.63851465208598</v>
+        <v>25.63851465208594</v>
       </c>
       <c r="H24">
-        <v>16.35535960507659</v>
+        <v>16.35535960507654</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.43228347128562</v>
+        <v>28.43228347128566</v>
       </c>
       <c r="C25">
-        <v>24.58878858150014</v>
+        <v>24.58878858150017</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.79947167563974</v>
+        <v>33.7994716756397</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>22.58337130150055</v>
+        <v>22.58337130150041</v>
       </c>
       <c r="H25">
-        <v>15.27956998395328</v>
+        <v>15.27956998395318</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.91583856925384</v>
+        <v>25.91454197545412</v>
       </c>
       <c r="C2">
-        <v>22.35082077021918</v>
+        <v>22.3440487853429</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.49513262707262</v>
+        <v>30.49434030970382</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.8474872253925</v>
+        <v>20.39274912444776</v>
       </c>
       <c r="H2">
-        <v>14.67116787177737</v>
+        <v>20.87049551162641</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.65023831535626</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,34 +447,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.10379777405386</v>
+        <v>24.1028451479086</v>
       </c>
       <c r="C3">
-        <v>20.74970159091043</v>
+        <v>20.74368085037518</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.16109713808369</v>
+        <v>28.16056046362153</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>19.75803349457645</v>
+        <v>18.99748306453775</v>
       </c>
       <c r="H3">
-        <v>14.35851717340186</v>
+        <v>19.7800552343124</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.3395898989615</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,34 +488,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.93623864129611</v>
+        <v>22.93548772358292</v>
       </c>
       <c r="C4">
-        <v>19.72229037891671</v>
+        <v>19.71673125975189</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.67536110369323</v>
+        <v>26.67496153656585</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.11785069237418</v>
+        <v>18.14918856177272</v>
       </c>
       <c r="H4">
-        <v>14.21061585714031</v>
+        <v>19.13936865544193</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.19294314463698</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,34 +529,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.44631884889517</v>
+        <v>22.44564834241021</v>
       </c>
       <c r="C5">
-        <v>19.29212000259191</v>
+        <v>19.28674986336133</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.05591109168822</v>
+        <v>26.05556328935941</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>18.86411856635677</v>
+        <v>17.80566905572221</v>
       </c>
       <c r="H5">
-        <v>14.16064090989329</v>
+        <v>18.88545718523071</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.14348387408998</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,34 +570,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.36410615860263</v>
+        <v>22.36344891266195</v>
       </c>
       <c r="C6">
-        <v>19.21998699746367</v>
+        <v>19.21464831158623</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.95218555559395</v>
+        <v>25.95184612344784</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>18.82241676092969</v>
+        <v>17.74876299718629</v>
       </c>
       <c r="H6">
-        <v>14.15294099232768</v>
+        <v>18.84372717152147</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.135869796601</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,34 +611,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92968901070477</v>
+        <v>22.92893918393775</v>
       </c>
       <c r="C7">
-        <v>19.71653591404399</v>
+        <v>19.71097933906018</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.66706462084704</v>
+        <v>26.66666576741995</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.11439990326499</v>
+        <v>18.1445467909363</v>
       </c>
       <c r="H7">
-        <v>14.20990124637825</v>
+        <v>19.13591534232932</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.19223547303558</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,34 +652,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.30225629690194</v>
+        <v>25.30108065775793</v>
       </c>
       <c r="C8">
-        <v>21.80773083925324</v>
+        <v>21.80121830712475</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.70078888961107</v>
+        <v>29.70008943025982</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.46580978654387</v>
+        <v>19.90990474404149</v>
       </c>
       <c r="H8">
-        <v>14.55375613724931</v>
+        <v>20.48845699909689</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.53351063274491</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,34 +693,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.5347725237012</v>
+        <v>29.53265453415044</v>
       </c>
       <c r="C9">
-        <v>25.57502934137528</v>
+        <v>25.56660378446022</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.27272765848947</v>
+        <v>35.27122937196214</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>23.60939108809</v>
+        <v>23.63641391972116</v>
       </c>
       <c r="H9">
-        <v>15.61142347729373</v>
+        <v>23.44443024355263</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.58639306799324</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,34 +734,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.41445623411702</v>
+        <v>32.41152439729744</v>
       </c>
       <c r="C10">
-        <v>28.16950264389961</v>
+        <v>28.15957649834992</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.20465892304745</v>
+        <v>39.2023470662961</v>
       </c>
       <c r="F10">
         <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>26.4136144432139</v>
+        <v>26.4440606193494</v>
       </c>
       <c r="H10">
-        <v>16.84182991300005</v>
+        <v>26.10795186291148</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.81244495118456</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,34 +775,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.6818323483713</v>
+        <v>33.67848651409688</v>
       </c>
       <c r="C11">
-        <v>29.32061489636473</v>
+        <v>29.30996335004447</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.97810451804748</v>
+        <v>40.97533944495628</v>
       </c>
       <c r="F11">
         <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>27.7042984682329</v>
+        <v>27.73632521745597</v>
       </c>
       <c r="H11">
-        <v>17.70654920019515</v>
+        <v>27.3437299336936</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>17.67603391372672</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,34 +816,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.15638508730882</v>
+        <v>34.15287417841368</v>
       </c>
       <c r="C12">
-        <v>29.75321743786674</v>
+        <v>29.74228250039793</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.64963119898812</v>
+        <v>41.64667833804408</v>
       </c>
       <c r="F12">
         <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>28.19649229638532</v>
+        <v>28.22912001116875</v>
       </c>
       <c r="H12">
-        <v>18.03952733330476</v>
+        <v>27.8163516770092</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.00858166766528</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,34 +857,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.05440699954715</v>
+        <v>34.05093205041125</v>
       </c>
       <c r="C13">
-        <v>29.66017910317614</v>
+        <v>29.64930563496497</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.50496759541688</v>
+        <v>41.50205598111336</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>28.09031211041379</v>
+        <v>28.12281030538022</v>
       </c>
       <c r="H13">
-        <v>17.96755194057741</v>
+        <v>27.71433380441313</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17.9366991318551</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,34 +898,37 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.7209769295445</v>
+        <v>33.71761769459686</v>
       </c>
       <c r="C14">
-        <v>29.3562656645479</v>
+        <v>29.34559099516466</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.0333379743022</v>
+        <v>41.03055780550533</v>
       </c>
       <c r="F14">
         <v>39.19167637503958</v>
       </c>
       <c r="G14">
-        <v>27.7447139375352</v>
+        <v>27.77679008584201</v>
       </c>
       <c r="H14">
-        <v>17.73382680126202</v>
+        <v>27.38251124259399</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>17.70327617654159</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,34 +939,37 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.5160664300107</v>
+        <v>33.51277692204831</v>
       </c>
       <c r="C15">
-        <v>29.16971012196966</v>
+        <v>29.15915600115463</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.744518999707</v>
+        <v>40.74181708849257</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>27.53351739302981</v>
+        <v>27.56533531167216</v>
       </c>
       <c r="H15">
-        <v>17.59141350752146</v>
+        <v>27.17990894290397</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>17.56104755957873</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,34 +980,37 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.33083362716449</v>
+        <v>32.32792780677509</v>
       </c>
       <c r="C16">
-        <v>28.09376035438304</v>
+        <v>28.08388055375948</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.08862610935217</v>
+        <v>39.08634187208168</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>26.3296686727451</v>
+        <v>26.36001195019226</v>
       </c>
       <c r="H16">
-        <v>16.78603933782975</v>
+        <v>26.02776970598278</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.75672811690755</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,34 +1021,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.59330703733773</v>
+        <v>31.59062413232685</v>
       </c>
       <c r="C17">
-        <v>27.42681475678702</v>
+        <v>27.41733608425379</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.07026778441919</v>
+        <v>38.06821593246474</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>25.59579414099553</v>
+        <v>25.62523814866095</v>
       </c>
       <c r="H17">
-        <v>16.33857673660295</v>
+        <v>25.3278828757951</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.3111996997357</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1062,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.16503803878831</v>
+        <v>31.16247937718368</v>
       </c>
       <c r="C18">
-        <v>27.04040071602847</v>
+        <v>27.03114892381956</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.48294907199933</v>
+        <v>37.48102338035017</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>25.17500760318532</v>
+        <v>25.20393662601543</v>
       </c>
       <c r="H18">
-        <v>16.17575229486583</v>
+        <v>24.927506648092</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.14886323633077</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,34 +1103,37 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.01931519798921</v>
+        <v>31.01679797294342</v>
       </c>
       <c r="C19">
-        <v>26.90906180130845</v>
+        <v>26.89988623370375</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.28376326848386</v>
+        <v>37.28187910942543</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>25.03272982672661</v>
+        <v>25.0614848957188</v>
       </c>
       <c r="H19">
-        <v>16.12173169158864</v>
+        <v>24.79229021740238</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.09500871119296</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,34 +1144,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.67223357386264</v>
+        <v>31.66952736287197</v>
       </c>
       <c r="C20">
-        <v>27.4980966805935</v>
+        <v>27.48857572060983</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.17882396213064</v>
+        <v>38.17674817459248</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>25.67377175045826</v>
+        <v>25.70331125982293</v>
       </c>
       <c r="H20">
-        <v>16.36924504451418</v>
+        <v>25.4021539388591</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.341778095755</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,34 +1185,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.8190525060086</v>
+        <v>33.81565952742294</v>
       </c>
       <c r="C21">
-        <v>29.4456138424183</v>
+        <v>29.43488104124724</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.17184828069719</v>
+        <v>41.16902998328412</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>27.84611906967137</v>
+        <v>27.87831912570326</v>
       </c>
       <c r="H21">
-        <v>17.802319270106</v>
+        <v>27.47983772511884</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>17.7716799813003</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,34 +1226,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.19126857671301</v>
+        <v>35.18737693005868</v>
       </c>
       <c r="C22">
-        <v>30.69977267564014</v>
+        <v>30.68819535678749</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.12915913713269</v>
+        <v>43.12575810753474</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>29.28680985305894</v>
+        <v>29.32076227428194</v>
       </c>
       <c r="H22">
-        <v>18.78293139145566</v>
+        <v>28.8657317693964</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.75103059125387</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,34 +1267,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.46142096205927</v>
+        <v>34.45780086134855</v>
       </c>
       <c r="C23">
-        <v>30.03176176457843</v>
+        <v>30.02064104790315</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.08353648818802</v>
+        <v>42.08045723138439</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>28.5154439309065</v>
+        <v>28.54846022284194</v>
       </c>
       <c r="H23">
-        <v>18.25619191152676</v>
+        <v>28.1229928473581</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.22496720927187</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,34 +1308,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.63656419504964</v>
+        <v>31.63386853273981</v>
       </c>
       <c r="C24">
-        <v>27.46587946347499</v>
+        <v>27.45637763309593</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.12975163421098</v>
+        <v>38.12768669083287</v>
       </c>
       <c r="F24">
         <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>25.63851465208594</v>
+        <v>25.66801097878456</v>
       </c>
       <c r="H24">
-        <v>16.35535960507654</v>
+        <v>25.36856985242995</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.3279332896213</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,34 +1349,37 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.43228347128566</v>
+        <v>28.43043694588395</v>
       </c>
       <c r="C25">
-        <v>24.58878858150017</v>
+        <v>24.58089112435784</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.7994716756397</v>
+        <v>33.7982204034147</v>
       </c>
       <c r="F25">
         <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>22.58337130150041</v>
+        <v>22.60915940201068</v>
       </c>
       <c r="H25">
-        <v>15.27956998395318</v>
+        <v>22.56910818126007</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.25579563533255</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.91454197545412</v>
+        <v>20.35844382670003</v>
       </c>
       <c r="C2">
-        <v>22.3440487853429</v>
+        <v>13.80771688565386</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.49434030970382</v>
+        <v>7.229640466566485</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>63.3622288268726</v>
       </c>
       <c r="G2">
-        <v>20.39274912444776</v>
+        <v>2.084868197260788</v>
       </c>
       <c r="H2">
-        <v>20.87049551162641</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>14.65023831535626</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.987322108585142</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.78413548651675</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.1028451479086</v>
+        <v>18.84368805932799</v>
       </c>
       <c r="C3">
-        <v>20.74368085037518</v>
+        <v>12.75960713201719</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.16056046362153</v>
+        <v>6.53600248154149</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>59.56624010923591</v>
       </c>
       <c r="G3">
-        <v>18.99748306453775</v>
+        <v>2.099248329305063</v>
       </c>
       <c r="H3">
-        <v>19.7800552343124</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>14.3395898989615</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.567320190055668</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.45677293811452</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.93548772358292</v>
+        <v>17.87478780141861</v>
       </c>
       <c r="C4">
-        <v>19.71673125975189</v>
+        <v>12.08976778675856</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.67496153656585</v>
+        <v>6.106524534712847</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>57.19142249793077</v>
       </c>
       <c r="G4">
-        <v>18.14918856177272</v>
+        <v>2.108187531066673</v>
       </c>
       <c r="H4">
-        <v>19.13936865544193</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>14.19294314463698</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.309667905464531</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.60642370214496</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.44564834241021</v>
+        <v>17.46992518882021</v>
       </c>
       <c r="C5">
-        <v>19.28674986336133</v>
+        <v>11.8099356881775</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.05556328935941</v>
+        <v>5.930208981786299</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>56.21253496910465</v>
       </c>
       <c r="G5">
-        <v>17.80566905572221</v>
+        <v>2.111864005353146</v>
       </c>
       <c r="H5">
-        <v>18.88545718523071</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>14.14348387408998</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.204688674977318</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.25071751324035</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.36344891266195</v>
+        <v>17.40208571138393</v>
       </c>
       <c r="C6">
-        <v>19.21464831158623</v>
+        <v>11.76304818060504</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.95184612344784</v>
+        <v>5.90084266989713</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>56.04932321820619</v>
       </c>
       <c r="G6">
-        <v>17.74876299718629</v>
+        <v>2.112476680019536</v>
       </c>
       <c r="H6">
-        <v>18.84372717152147</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>14.135869796601</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.187257170961145</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.19109021431445</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92893918393775</v>
+        <v>17.86936859515779</v>
       </c>
       <c r="C7">
-        <v>19.71097933906018</v>
+        <v>12.08602199176033</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.66666576741995</v>
+        <v>6.104152436302975</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>57.17826580290936</v>
       </c>
       <c r="G7">
-        <v>18.1445467909363</v>
+        <v>2.108236969384922</v>
       </c>
       <c r="H7">
-        <v>19.13591534232932</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>14.19223547303558</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.308252090887461</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.60166406729738</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.30108065775793</v>
+        <v>19.84404131942106</v>
       </c>
       <c r="C8">
-        <v>21.80121830712475</v>
+        <v>13.4516223384968</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.70008943025982</v>
+        <v>6.990960602479126</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>62.06239722362679</v>
       </c>
       <c r="G8">
-        <v>19.90990474404149</v>
+        <v>2.089807579036265</v>
       </c>
       <c r="H8">
-        <v>20.48845699909689</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>14.53351063274491</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.842424191579129</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.33360806891507</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.53265453415044</v>
+        <v>23.42308192901733</v>
       </c>
       <c r="C9">
-        <v>25.56660378446022</v>
+        <v>15.9343934216383</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.27122937196214</v>
+        <v>8.72276708437782</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>71.30920637060548</v>
       </c>
       <c r="G9">
-        <v>23.63641391972116</v>
+        <v>2.054220253586649</v>
       </c>
       <c r="H9">
-        <v>23.44443024355263</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>15.58639306799324</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.89525923326756</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.46486476263228</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.41152439729744</v>
+        <v>25.899610443794</v>
       </c>
       <c r="C10">
-        <v>28.15957649834992</v>
+        <v>17.66202720795121</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>39.2023470662961</v>
+        <v>10.02664320350633</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>77.95341078260847</v>
       </c>
       <c r="G10">
-        <v>26.4440606193494</v>
+        <v>2.027882227393495</v>
       </c>
       <c r="H10">
-        <v>26.10795186291148</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>16.81244495118456</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.67987656222284</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.62912972103878</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.67848651409688</v>
+        <v>27.0005402991799</v>
       </c>
       <c r="C11">
-        <v>29.30996335004447</v>
+        <v>18.43342193952645</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.97533944495628</v>
+        <v>10.63711223647762</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>80.96368951255747</v>
       </c>
       <c r="G11">
-        <v>27.73632521745597</v>
+        <v>2.015708783866979</v>
       </c>
       <c r="H11">
-        <v>27.3437299336936</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>17.67603391372672</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.04203378130607</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.59121744237535</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.15287417841368</v>
+        <v>27.41454313253001</v>
       </c>
       <c r="C12">
-        <v>29.74228250039793</v>
+        <v>18.72411709618712</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.64667833804408</v>
+        <v>10.87190496365646</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>82.10425359535935</v>
       </c>
       <c r="G12">
-        <v>28.22912001116875</v>
+        <v>2.011055549415552</v>
       </c>
       <c r="H12">
-        <v>27.8163516770092</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>18.00858166766528</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.18025807673956</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.95304971763628</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.05093205041125</v>
+        <v>27.32549443197638</v>
       </c>
       <c r="C13">
-        <v>29.64930563496497</v>
+        <v>18.6615613303427</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.50205598111336</v>
+        <v>10.82115614632843</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>81.8585386289533</v>
       </c>
       <c r="G13">
-        <v>28.12281030538022</v>
+        <v>2.012059926719973</v>
       </c>
       <c r="H13">
-        <v>27.71433380441313</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>17.9366991318551</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.15043447887863</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.87521990932254</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.71761769459686</v>
+        <v>27.03465341088677</v>
       </c>
       <c r="C14">
-        <v>29.34559099516466</v>
+        <v>18.45736159072299</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>41.03055780550533</v>
+        <v>10.65634875496357</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>81.05749540932693</v>
       </c>
       <c r="G14">
-        <v>27.77679008584201</v>
+        <v>2.015326932433265</v>
       </c>
       <c r="H14">
-        <v>27.38251124259399</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>17.70327617654159</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.0533816172983</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.62103069917675</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.51277692204831</v>
+        <v>26.85615437301644</v>
       </c>
       <c r="C15">
-        <v>29.15915600115463</v>
+        <v>18.3321214929919</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.74181708849257</v>
+        <v>10.55590920353457</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>80.56699924542268</v>
       </c>
       <c r="G15">
-        <v>27.56533531167216</v>
+        <v>2.01732188641222</v>
       </c>
       <c r="H15">
-        <v>27.17990894290397</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>17.56104755957873</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.99408650879833</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.46503285808025</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.32792780677509</v>
+        <v>25.82720984379492</v>
       </c>
       <c r="C16">
-        <v>28.08388055375948</v>
+        <v>17.61137689201869</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.08634187208168</v>
+        <v>9.987186972561837</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>77.75662536398985</v>
       </c>
       <c r="G16">
-        <v>26.36001195019226</v>
+        <v>2.028672650288016</v>
       </c>
       <c r="H16">
-        <v>26.02776970598278</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>16.75672811690755</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.65634012933052</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.56586301779797</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.59062413232685</v>
+        <v>25.18992776756321</v>
       </c>
       <c r="C17">
-        <v>27.41733608425379</v>
+        <v>17.16594070346887</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.06821593246474</v>
+        <v>9.643457255156129</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>76.03091883998839</v>
       </c>
       <c r="G17">
-        <v>25.62523814866095</v>
+        <v>2.03557654665673</v>
       </c>
       <c r="H17">
-        <v>25.3278828757951</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>16.3111996997357</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.45068983385921</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.00898143990887</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.16247937718368</v>
+        <v>24.8209088002802</v>
       </c>
       <c r="C18">
-        <v>27.03114892381956</v>
+        <v>16.90832386590526</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.48102338035017</v>
+        <v>9.447303230336539</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>75.03700982449757</v>
       </c>
       <c r="G18">
-        <v>25.20393662601543</v>
+        <v>2.039530516634402</v>
       </c>
       <c r="H18">
-        <v>24.927506648092</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>16.14886323633077</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.33287275970465</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.68651302616276</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.01679797294342</v>
+        <v>24.69551940191839</v>
       </c>
       <c r="C19">
-        <v>26.89988623370375</v>
+        <v>16.82083820468287</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.28187910942543</v>
+        <v>9.381124808613125</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>74.70019919330497</v>
       </c>
       <c r="G19">
-        <v>25.0614848957188</v>
+        <v>2.040866776667638</v>
       </c>
       <c r="H19">
-        <v>24.79229021740238</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>16.09500871119296</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.29305365205988</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.57693884933002</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.66952736287197</v>
+        <v>25.25801807795765</v>
       </c>
       <c r="C20">
-        <v>27.48857572060983</v>
+        <v>17.21350004508555</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.17674817459248</v>
+        <v>9.679880073582416</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>76.2147455595577</v>
       </c>
       <c r="G20">
-        <v>25.70331125982293</v>
+        <v>2.034843475058527</v>
       </c>
       <c r="H20">
-        <v>25.4021539388591</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>16.341778095755</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.4725311753557</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.06848162103968</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.81565952742294</v>
+        <v>27.12015184178757</v>
       </c>
       <c r="C21">
-        <v>29.43488104124724</v>
+        <v>18.51737232053015</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>41.16902998328412</v>
+        <v>10.70464803917007</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>81.29274134228048</v>
       </c>
       <c r="G21">
-        <v>27.87831912570326</v>
+        <v>2.014368655090097</v>
       </c>
       <c r="H21">
-        <v>27.47983772511884</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>17.7716799813003</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.08185586450648</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.69575312208354</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.18737693005868</v>
+        <v>28.3207935511822</v>
       </c>
       <c r="C22">
-        <v>30.68819535678749</v>
+        <v>19.36170683977319</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>43.12575810753474</v>
+        <v>11.39623971204663</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>84.61687577718764</v>
       </c>
       <c r="G22">
-        <v>29.32076227428194</v>
+        <v>2.000724068900503</v>
       </c>
       <c r="H22">
-        <v>28.8657317693964</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>18.75103059125387</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.48662944573706</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.74522508753322</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.45780086134855</v>
+        <v>27.68117525064812</v>
       </c>
       <c r="C23">
-        <v>30.02064104790315</v>
+        <v>18.91152220170268</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>42.08045723138439</v>
+        <v>11.02467639952208</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>82.84124622785521</v>
       </c>
       <c r="G23">
-        <v>28.54846022284194</v>
+        <v>2.00803669415921</v>
       </c>
       <c r="H23">
-        <v>28.1229928473581</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>18.22496720927187</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.26985859199017</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.18609942576296</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.63386853273981</v>
+        <v>25.22724271987896</v>
       </c>
       <c r="C24">
-        <v>27.45637763309593</v>
+        <v>17.1920032799357</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.12768669083287</v>
+        <v>9.663408848921266</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>76.13164320665572</v>
       </c>
       <c r="G24">
-        <v>25.66801097878456</v>
+        <v>2.03517494284092</v>
       </c>
       <c r="H24">
-        <v>25.36856985242995</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>16.3279332896213</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.46265543891503</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.04158883719548</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.43043694588395</v>
+        <v>22.48389579579035</v>
       </c>
       <c r="C25">
-        <v>24.58089112435784</v>
+        <v>15.2815411002119</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.7982204034147</v>
+        <v>8.251737451246516</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>68.83915097090917</v>
       </c>
       <c r="G25">
-        <v>22.60915940201068</v>
+        <v>2.063837587877535</v>
       </c>
       <c r="H25">
-        <v>22.56910818126007</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>15.25579563533255</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.60922939150847</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.64378899023991</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.35844382670003</v>
+        <v>11.33895395394986</v>
       </c>
       <c r="C2">
-        <v>13.80771688565386</v>
+        <v>9.552697026741438</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.229640466566485</v>
+        <v>7.724014563622602</v>
       </c>
       <c r="F2">
-        <v>63.3622288268726</v>
+        <v>43.50676476830796</v>
       </c>
       <c r="G2">
-        <v>2.084868197260788</v>
+        <v>2.140770719123366</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>28.53735915313698</v>
       </c>
       <c r="J2">
-        <v>9.987322108585142</v>
+        <v>6.886995329440026</v>
       </c>
       <c r="K2">
-        <v>17.78413548651675</v>
+        <v>10.99952473669832</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.20330277565582</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.84368805932799</v>
+        <v>10.5387592257469</v>
       </c>
       <c r="C3">
-        <v>12.75960713201719</v>
+        <v>8.979256072482167</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.53600248154149</v>
+        <v>7.38045061943335</v>
       </c>
       <c r="F3">
-        <v>59.56624010923591</v>
+        <v>41.86139101395099</v>
       </c>
       <c r="G3">
-        <v>2.099248329305063</v>
+        <v>2.149452058960649</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>27.87477970009677</v>
       </c>
       <c r="J3">
-        <v>9.567320190055668</v>
+        <v>6.891695151263965</v>
       </c>
       <c r="K3">
-        <v>16.45677293811452</v>
+        <v>10.2334180560015</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.73489851645807</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.87478780141861</v>
+        <v>10.02128609059122</v>
       </c>
       <c r="C4">
-        <v>12.08976778675856</v>
+        <v>8.616635447902379</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.106524534712847</v>
+        <v>7.168907741098936</v>
       </c>
       <c r="F4">
-        <v>57.19142249793077</v>
+        <v>40.84901888068892</v>
       </c>
       <c r="G4">
-        <v>2.108187531066673</v>
+        <v>2.154912455151251</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.47450410590398</v>
       </c>
       <c r="J4">
-        <v>9.309667905464531</v>
+        <v>6.895977402743406</v>
       </c>
       <c r="K4">
-        <v>15.60642370214496</v>
+        <v>9.763425602140845</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.44664786171474</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.46992518882021</v>
+        <v>9.803755686944603</v>
       </c>
       <c r="C5">
-        <v>11.8099356881775</v>
+        <v>8.466326454061965</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.930208981786299</v>
+        <v>7.08270420067653</v>
       </c>
       <c r="F5">
-        <v>56.21253496910465</v>
+        <v>40.43637054651351</v>
       </c>
       <c r="G5">
-        <v>2.111864005353146</v>
+        <v>2.157171999613387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>27.31308132838635</v>
       </c>
       <c r="J5">
-        <v>9.204688674977318</v>
+        <v>6.898062535082765</v>
       </c>
       <c r="K5">
-        <v>15.25071751324035</v>
+        <v>9.612848984385655</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.32919343785116</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.40208571138393</v>
+        <v>9.767230652286859</v>
       </c>
       <c r="C6">
-        <v>11.76304818060504</v>
+        <v>8.441218318154901</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.90084266989713</v>
+        <v>7.06839505429233</v>
       </c>
       <c r="F6">
-        <v>56.04932321820619</v>
+        <v>40.36785824026475</v>
       </c>
       <c r="G6">
-        <v>2.112476680019536</v>
+        <v>2.157549319703207</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27.28638083188794</v>
       </c>
       <c r="J6">
-        <v>9.187257170961145</v>
+        <v>6.898428997031732</v>
       </c>
       <c r="K6">
-        <v>15.19109021431445</v>
+        <v>9.587736049462126</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.30969628907029</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.86936859515779</v>
+        <v>10.01837945262514</v>
       </c>
       <c r="C7">
-        <v>12.08602199176033</v>
+        <v>8.614618436167834</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.104152436302975</v>
+        <v>7.167744949180308</v>
       </c>
       <c r="F7">
-        <v>57.17826580290936</v>
+        <v>40.84345355252934</v>
       </c>
       <c r="G7">
-        <v>2.108236969384922</v>
+        <v>2.154942786757967</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.47232018518109</v>
       </c>
       <c r="J7">
-        <v>9.308252090887461</v>
+        <v>6.896004160800838</v>
       </c>
       <c r="K7">
-        <v>15.60166406729738</v>
+        <v>9.761402361848502</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.44506354551734</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.84404131942106</v>
+        <v>11.06842484076234</v>
       </c>
       <c r="C8">
-        <v>13.4516223384968</v>
+        <v>9.357213764564174</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.990960602479126</v>
+        <v>7.60576163914219</v>
       </c>
       <c r="F8">
-        <v>62.06239722362679</v>
+        <v>42.94011889313262</v>
       </c>
       <c r="G8">
-        <v>2.089807579036265</v>
+        <v>2.143738116265447</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28.30756785034857</v>
       </c>
       <c r="J8">
-        <v>9.842424191579129</v>
+        <v>6.888319102334194</v>
       </c>
       <c r="K8">
-        <v>17.33360806891507</v>
+        <v>10.74043757064185</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.04202880387104</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.42308192901733</v>
+        <v>12.92389544902205</v>
       </c>
       <c r="C9">
-        <v>15.9343934216383</v>
+        <v>10.72687066824227</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.72276708437782</v>
+        <v>8.454372006412418</v>
       </c>
       <c r="F9">
-        <v>71.30920637060548</v>
+        <v>47.01906636523813</v>
       </c>
       <c r="G9">
-        <v>2.054220253586649</v>
+        <v>2.122714416169457</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>29.99587720854898</v>
       </c>
       <c r="J9">
-        <v>10.89525923326756</v>
+        <v>6.884864127233318</v>
       </c>
       <c r="K9">
-        <v>20.46486476263228</v>
+        <v>12.51916439387454</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.65571559799076</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.899610443794</v>
+        <v>14.16861935909491</v>
       </c>
       <c r="C10">
-        <v>17.66202720795121</v>
+        <v>11.73558994058538</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.02664320350633</v>
+        <v>9.086789330974874</v>
       </c>
       <c r="F10">
-        <v>77.95341078260847</v>
+        <v>49.9795959448865</v>
       </c>
       <c r="G10">
-        <v>2.027882227393495</v>
+        <v>2.107720020491184</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>31.26581021621363</v>
       </c>
       <c r="J10">
-        <v>11.67987656222284</v>
+        <v>6.890207739631865</v>
       </c>
       <c r="K10">
-        <v>22.62912972103878</v>
+        <v>13.71476070192479</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.82465269405079</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.0005402991799</v>
+        <v>14.71050561449303</v>
       </c>
       <c r="C11">
-        <v>18.43342193952645</v>
+        <v>12.19421299905678</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.63711223647762</v>
+        <v>9.437810658011745</v>
       </c>
       <c r="F11">
-        <v>80.96368951255747</v>
+        <v>51.31654746202489</v>
       </c>
       <c r="G11">
-        <v>2.015708783866979</v>
+        <v>2.100965305987003</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>31.85002830628537</v>
       </c>
       <c r="J11">
-        <v>12.04203378130607</v>
+        <v>6.894545707201425</v>
       </c>
       <c r="K11">
-        <v>23.59121744237535</v>
+        <v>14.23588195575776</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.33400533450063</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.41454313253001</v>
+        <v>14.91232536454896</v>
       </c>
       <c r="C12">
-        <v>18.72411709618712</v>
+        <v>12.36551511654816</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.87190496365646</v>
+        <v>9.568502138185938</v>
       </c>
       <c r="F12">
-        <v>82.10425359535935</v>
+        <v>51.82133902549414</v>
       </c>
       <c r="G12">
-        <v>2.011055549415552</v>
+        <v>2.098414083402434</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>32.07222617547745</v>
       </c>
       <c r="J12">
-        <v>12.18025807673956</v>
+        <v>6.896480644158876</v>
       </c>
       <c r="K12">
-        <v>23.95304971763628</v>
+        <v>14.4300676765963</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.52377340742043</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.32549443197638</v>
+        <v>14.86900821024466</v>
       </c>
       <c r="C13">
-        <v>18.6615613303427</v>
+        <v>12.3287257157084</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.82115614632843</v>
+        <v>9.540453546562967</v>
       </c>
       <c r="F13">
-        <v>81.8585386289533</v>
+        <v>51.71268938167546</v>
       </c>
       <c r="G13">
-        <v>2.012059926719973</v>
+        <v>2.098963288897066</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>32.02432812549598</v>
       </c>
       <c r="J13">
-        <v>12.15043447887863</v>
+        <v>6.896050618332228</v>
       </c>
       <c r="K13">
-        <v>23.87521990932254</v>
+        <v>14.38838442181752</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.48304004947196</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.03465341088677</v>
+        <v>14.72717647895249</v>
       </c>
       <c r="C14">
-        <v>18.45736159072299</v>
+        <v>12.20835296548356</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.65634875496357</v>
+        <v>9.448607062058255</v>
       </c>
       <c r="F14">
-        <v>81.05749540932693</v>
+        <v>51.35810681773349</v>
       </c>
       <c r="G14">
-        <v>2.015326932433265</v>
+        <v>2.100755299957259</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>31.86828901386919</v>
       </c>
       <c r="J14">
-        <v>12.0533816172983</v>
+        <v>6.89469892946227</v>
       </c>
       <c r="K14">
-        <v>23.62103069917675</v>
+        <v>14.2519201592441</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.34967939039767</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.85615437301644</v>
+        <v>14.63986390423821</v>
       </c>
       <c r="C15">
-        <v>18.3321214929919</v>
+        <v>12.13431597438193</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.55590920353457</v>
+        <v>9.392059787051487</v>
       </c>
       <c r="F15">
-        <v>80.56699924542268</v>
+        <v>51.14072085205282</v>
       </c>
       <c r="G15">
-        <v>2.01732188641222</v>
+        <v>2.101853732171442</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>31.77283782215886</v>
       </c>
       <c r="J15">
-        <v>11.99408650879833</v>
+        <v>6.893909602846845</v>
       </c>
       <c r="K15">
-        <v>23.46503285808025</v>
+        <v>14.16792522107296</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.2675901784142</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.82720984379492</v>
+        <v>14.13272595783062</v>
       </c>
       <c r="C16">
-        <v>17.61137689201869</v>
+        <v>11.70528060575927</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.987186972561837</v>
+        <v>9.063533016660545</v>
       </c>
       <c r="F16">
-        <v>77.75662536398985</v>
+        <v>49.89201762914244</v>
       </c>
       <c r="G16">
-        <v>2.028672650288016</v>
+        <v>2.10816255082153</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>31.2277633430628</v>
       </c>
       <c r="J16">
-        <v>11.65634012933052</v>
+        <v>6.88996412033903</v>
       </c>
       <c r="K16">
-        <v>22.56586301779797</v>
+        <v>13.68025632327763</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.79092355978809</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.18992776756321</v>
+        <v>13.81546012409576</v>
       </c>
       <c r="C17">
-        <v>17.16594070346887</v>
+        <v>11.43775084659489</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.643457255156129</v>
+        <v>8.889211042403453</v>
       </c>
       <c r="F17">
-        <v>76.03091883998839</v>
+        <v>49.12338973503275</v>
       </c>
       <c r="G17">
-        <v>2.03557654665673</v>
+        <v>2.11204782551616</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30.89506090914371</v>
       </c>
       <c r="J17">
-        <v>11.45068983385921</v>
+        <v>6.888044446420577</v>
       </c>
       <c r="K17">
-        <v>22.00898143990887</v>
+        <v>13.37534058943177</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.49284027528645</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.8209088002802</v>
+        <v>13.63067800041498</v>
       </c>
       <c r="C18">
-        <v>16.90832386590526</v>
+        <v>11.28225215190074</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.447303230336539</v>
+        <v>8.79785360268397</v>
       </c>
       <c r="F18">
-        <v>75.03700982449757</v>
+        <v>48.68037153125849</v>
       </c>
       <c r="G18">
-        <v>2.039530516634402</v>
+        <v>2.114288964594481</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>30.70430969656831</v>
       </c>
       <c r="J18">
-        <v>11.33287275970465</v>
+        <v>6.887118637952691</v>
       </c>
       <c r="K18">
-        <v>21.68651302616276</v>
+        <v>13.19781082928173</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.31927489253532</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.69551940191839</v>
+        <v>13.56771556691367</v>
       </c>
       <c r="C19">
-        <v>16.82083820468287</v>
+        <v>11.22932148908238</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.381124808613125</v>
+        <v>8.766866414673288</v>
       </c>
       <c r="F19">
-        <v>74.70019919330497</v>
+        <v>48.53021803337029</v>
       </c>
       <c r="G19">
-        <v>2.040866776667638</v>
+        <v>2.115048963748263</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>30.63982895331176</v>
       </c>
       <c r="J19">
-        <v>11.29305365205988</v>
+        <v>6.88683528311894</v>
       </c>
       <c r="K19">
-        <v>21.57693884933002</v>
+        <v>13.13732945925453</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.26014210775612</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.25801807795765</v>
+        <v>13.84947073650553</v>
       </c>
       <c r="C20">
-        <v>17.21350004508555</v>
+        <v>11.4663971115914</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.679880073582416</v>
+        <v>8.906092641547721</v>
       </c>
       <c r="F20">
-        <v>76.2147455595577</v>
+        <v>49.20530787238316</v>
       </c>
       <c r="G20">
-        <v>2.034843475058527</v>
+        <v>2.111633585720315</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>30.93041433879696</v>
       </c>
       <c r="J20">
-        <v>11.4725311753557</v>
+        <v>6.888230216689564</v>
       </c>
       <c r="K20">
-        <v>22.06848162103968</v>
+        <v>13.40802109131263</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.5247899685474</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.12015184178757</v>
+        <v>14.76892664277299</v>
       </c>
       <c r="C21">
-        <v>18.51737232053015</v>
+        <v>12.24377276356802</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.70464803917007</v>
+        <v>9.475644626205577</v>
       </c>
       <c r="F21">
-        <v>81.29274134228048</v>
+        <v>51.46229673796407</v>
       </c>
       <c r="G21">
-        <v>2.014368655090097</v>
+        <v>2.100228787242618</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>31.91409487079462</v>
       </c>
       <c r="J21">
-        <v>12.08185586450648</v>
+        <v>6.895087869928217</v>
       </c>
       <c r="K21">
-        <v>23.69575312208354</v>
+        <v>14.29208753128407</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.38893420686888</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.3207935511822</v>
+        <v>15.35020175323446</v>
       </c>
       <c r="C22">
-        <v>19.36170683977319</v>
+        <v>12.73808545027474</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.39623971204663</v>
+        <v>9.851966100479594</v>
       </c>
       <c r="F22">
-        <v>84.61687577718764</v>
+        <v>52.92874981279796</v>
       </c>
       <c r="G22">
-        <v>2.000724068900503</v>
+        <v>2.092812226605804</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.56265723792293</v>
       </c>
       <c r="J22">
-        <v>12.48662944573706</v>
+        <v>6.901282783780295</v>
       </c>
       <c r="K22">
-        <v>24.74522508753322</v>
+        <v>14.8515708040706</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.93561753031132</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.68117525064812</v>
+        <v>15.04171913366583</v>
       </c>
       <c r="C23">
-        <v>18.91152220170268</v>
+        <v>12.47548207903054</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.02467639952208</v>
+        <v>9.652279747502829</v>
       </c>
       <c r="F23">
-        <v>82.84124622785521</v>
+        <v>52.1468678297519</v>
       </c>
       <c r="G23">
-        <v>2.00803669415921</v>
+        <v>2.096768226473388</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>32.21597178195289</v>
       </c>
       <c r="J23">
-        <v>12.26985859199017</v>
+        <v>6.897813293979531</v>
       </c>
       <c r="K23">
-        <v>24.18609942576296</v>
+        <v>14.55459588839917</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.64545832804397</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.22724271987896</v>
+        <v>13.83410196625142</v>
       </c>
       <c r="C24">
-        <v>17.1920032799357</v>
+        <v>11.45345141359142</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.663408848921266</v>
+        <v>8.898461626307254</v>
       </c>
       <c r="F24">
-        <v>76.13164320665572</v>
+        <v>49.16827617631036</v>
       </c>
       <c r="G24">
-        <v>2.03517494284092</v>
+        <v>2.111820840134519</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>30.91442942347487</v>
       </c>
       <c r="J24">
-        <v>11.46265543891503</v>
+        <v>6.888145677366967</v>
       </c>
       <c r="K24">
-        <v>22.04158883719548</v>
+        <v>13.39325319029661</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.51035235205064</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.48389579579035</v>
+        <v>12.44318267220137</v>
       </c>
       <c r="C25">
-        <v>15.2815411002119</v>
+        <v>10.36591131355855</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.251737451246516</v>
+        <v>8.226611296265482</v>
       </c>
       <c r="F25">
-        <v>68.83915097090917</v>
+        <v>45.92104612551833</v>
       </c>
       <c r="G25">
-        <v>2.063837587877535</v>
+        <v>2.12831270683319</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>29.53392178627527</v>
       </c>
       <c r="J25">
-        <v>10.60922939150847</v>
+        <v>6.884476414837083</v>
       </c>
       <c r="K25">
-        <v>19.64378899023991</v>
+        <v>12.05794004991246</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.20471113805001</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.33895395394986</v>
+        <v>10.82091761467928</v>
       </c>
       <c r="C2">
-        <v>9.552697026741438</v>
+        <v>8.544792735556168</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.724014563622602</v>
+        <v>13.68982799324578</v>
       </c>
       <c r="F2">
-        <v>43.50676476830796</v>
+        <v>49.17445699580077</v>
       </c>
       <c r="G2">
-        <v>2.140770719123366</v>
+        <v>3.724083580899947</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.53735915313698</v>
+        <v>32.34390339147611</v>
       </c>
       <c r="J2">
-        <v>6.886995329440026</v>
+        <v>10.04783658443079</v>
       </c>
       <c r="K2">
-        <v>10.99952473669832</v>
+        <v>12.19871911858792</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.20330277565582</v>
+        <v>16.87858594162278</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.5387592257469</v>
+        <v>10.69221808657815</v>
       </c>
       <c r="C3">
-        <v>8.979256072482167</v>
+        <v>8.402181951277045</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.38045061943335</v>
+        <v>13.72135786726382</v>
       </c>
       <c r="F3">
-        <v>41.86139101395099</v>
+        <v>48.89058132267645</v>
       </c>
       <c r="G3">
-        <v>2.149452058960649</v>
+        <v>3.727049664549777</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.87477970009677</v>
+        <v>32.20303204209402</v>
       </c>
       <c r="J3">
-        <v>6.891695151263965</v>
+        <v>10.05220735619478</v>
       </c>
       <c r="K3">
-        <v>10.2334180560015</v>
+        <v>12.11671602305847</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.73489851645807</v>
+        <v>16.87685127683544</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.02128609059122</v>
+        <v>10.61624489910634</v>
       </c>
       <c r="C4">
-        <v>8.616635447902379</v>
+        <v>8.315971919726122</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.168907741098936</v>
+        <v>13.74467724691989</v>
       </c>
       <c r="F4">
-        <v>40.84901888068892</v>
+        <v>48.72502639962015</v>
       </c>
       <c r="G4">
-        <v>2.154912455151251</v>
+        <v>3.728964763229378</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.47450410590398</v>
+        <v>32.11990677658027</v>
       </c>
       <c r="J4">
-        <v>6.895977402743406</v>
+        <v>10.05537503852897</v>
       </c>
       <c r="K4">
-        <v>9.763425602140845</v>
+        <v>12.06969799872791</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.44664786171474</v>
+        <v>16.8802433366178</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.803755686944603</v>
+        <v>10.58609354199783</v>
       </c>
       <c r="C5">
-        <v>8.466326454061965</v>
+        <v>8.281228882967403</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.08270420067653</v>
+        <v>13.75517485861391</v>
       </c>
       <c r="F5">
-        <v>40.43637054651351</v>
+        <v>48.65980473168558</v>
       </c>
       <c r="G5">
-        <v>2.157171999613387</v>
+        <v>3.729768881173714</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.31308132838635</v>
+        <v>32.08689308786929</v>
       </c>
       <c r="J5">
-        <v>6.898062535082765</v>
+        <v>10.05678757681297</v>
       </c>
       <c r="K5">
-        <v>9.612848984385655</v>
+        <v>12.05139447732544</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.32919343785116</v>
+        <v>16.88274799415289</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.767230652286859</v>
+        <v>10.58113693564802</v>
       </c>
       <c r="C6">
-        <v>8.441218318154901</v>
+        <v>8.275484666574179</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.06839505429233</v>
+        <v>13.75697802620585</v>
       </c>
       <c r="F6">
-        <v>40.36785824026475</v>
+        <v>48.64911143221967</v>
       </c>
       <c r="G6">
-        <v>2.157549319703207</v>
+        <v>3.729903838243018</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.28638083188794</v>
+        <v>32.08146352333415</v>
       </c>
       <c r="J6">
-        <v>6.898428997031732</v>
+        <v>10.05702947613073</v>
       </c>
       <c r="K6">
-        <v>9.587736049462126</v>
+        <v>12.04840745304734</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.30969628907029</v>
+        <v>16.88323171091791</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.01837945262514</v>
+        <v>10.61583494075203</v>
       </c>
       <c r="C7">
-        <v>8.614618436167834</v>
+        <v>8.315501728090515</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.167744949180308</v>
+        <v>13.74481479511009</v>
       </c>
       <c r="F7">
-        <v>40.84345355252934</v>
+        <v>48.72413765888356</v>
       </c>
       <c r="G7">
-        <v>2.154942786757967</v>
+        <v>3.728975511775121</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.47232018518109</v>
+        <v>32.11945804186879</v>
       </c>
       <c r="J7">
-        <v>6.896004160800838</v>
+        <v>10.0553935958697</v>
       </c>
       <c r="K7">
-        <v>9.761402361848502</v>
+        <v>12.06944765862416</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.44506354551734</v>
+        <v>16.88027256935865</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.06842484076234</v>
+        <v>10.77593476890722</v>
       </c>
       <c r="C8">
-        <v>9.357213764564174</v>
+        <v>8.495368458445023</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.60576163914219</v>
+        <v>13.69987712156025</v>
       </c>
       <c r="F8">
-        <v>42.94011889313262</v>
+        <v>49.07478894527618</v>
       </c>
       <c r="G8">
-        <v>2.143738116265447</v>
+        <v>3.725086846470136</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.30756785034857</v>
+        <v>32.29463957483985</v>
       </c>
       <c r="J8">
-        <v>6.888319102334194</v>
+        <v>10.04924315496381</v>
       </c>
       <c r="K8">
-        <v>10.74043757064185</v>
+        <v>12.16976459567461</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.04202880387104</v>
+        <v>16.87706390395017</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.92389544902205</v>
+        <v>11.1121698121545</v>
       </c>
       <c r="C9">
-        <v>10.72687066824227</v>
+        <v>8.856710905672585</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.454372006412418</v>
+        <v>13.6432053219045</v>
       </c>
       <c r="F9">
-        <v>47.01906636523813</v>
+        <v>49.82971865173432</v>
       </c>
       <c r="G9">
-        <v>2.122714416169457</v>
+        <v>3.718202451527256</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.99587720854898</v>
+        <v>32.66429779204037</v>
       </c>
       <c r="J9">
-        <v>6.884864127233318</v>
+        <v>10.04102405113513</v>
       </c>
       <c r="K9">
-        <v>12.51916439387454</v>
+        <v>12.39202732242138</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.65571559799076</v>
+        <v>16.90603795925323</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.16861935909491</v>
+        <v>11.37014178046914</v>
       </c>
       <c r="C10">
-        <v>11.73558994058538</v>
+        <v>9.124632379941907</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.086789330974874</v>
+        <v>13.62076440326372</v>
       </c>
       <c r="F10">
-        <v>49.9795959448865</v>
+        <v>50.42238885041401</v>
       </c>
       <c r="G10">
-        <v>2.107720020491184</v>
+        <v>3.713590947596527</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.26581021621363</v>
+        <v>32.95093435079709</v>
       </c>
       <c r="J10">
-        <v>6.890207739631865</v>
+        <v>10.03733006999926</v>
       </c>
       <c r="K10">
-        <v>13.71476070192479</v>
+        <v>12.5695979132339</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.82465269405079</v>
+        <v>16.94864731662132</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.71050561449303</v>
+        <v>11.48930204034355</v>
       </c>
       <c r="C11">
-        <v>12.19421299905678</v>
+        <v>9.246466898119028</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.437810658011745</v>
+        <v>13.61472105614144</v>
       </c>
       <c r="F11">
-        <v>51.31654746202489</v>
+        <v>50.69956756056555</v>
       </c>
       <c r="G11">
-        <v>2.100965305987003</v>
+        <v>3.71158884010067</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.85002830628537</v>
+        <v>33.08439333640776</v>
       </c>
       <c r="J11">
-        <v>6.894545707201425</v>
+        <v>10.03615914895285</v>
       </c>
       <c r="K11">
-        <v>14.23588195575776</v>
+        <v>12.65317907093557</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.33400533450063</v>
+        <v>16.97260818085384</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.91232536454896</v>
+        <v>11.5346369673955</v>
       </c>
       <c r="C12">
-        <v>12.36551511654816</v>
+        <v>9.292549517229229</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.568502138185938</v>
+        <v>13.61303065647377</v>
       </c>
       <c r="F12">
-        <v>51.82133902549414</v>
+        <v>50.80555381324127</v>
       </c>
       <c r="G12">
-        <v>2.098414083402434</v>
+        <v>3.710844365425079</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.07222617547745</v>
+        <v>33.13535261134326</v>
       </c>
       <c r="J12">
-        <v>6.896480644158876</v>
+        <v>10.03578903026289</v>
       </c>
       <c r="K12">
-        <v>14.4300676765963</v>
+        <v>12.68520571325775</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.52377340742043</v>
+        <v>16.98233406572315</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.86900821024466</v>
+        <v>11.5248646367723</v>
       </c>
       <c r="C13">
-        <v>12.3287257157084</v>
+        <v>9.282627909495208</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.540453546562967</v>
+        <v>13.61336813221394</v>
       </c>
       <c r="F13">
-        <v>51.71268938167546</v>
+        <v>50.78268324172787</v>
       </c>
       <c r="G13">
-        <v>2.098963288897066</v>
+        <v>3.711004094214453</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.02432812549598</v>
+        <v>33.12435920678642</v>
       </c>
       <c r="J13">
-        <v>6.896050618332228</v>
+        <v>10.03586548239385</v>
       </c>
       <c r="K13">
-        <v>14.38838442181752</v>
+        <v>12.67829190249715</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.48304004947196</v>
+        <v>16.98021050641026</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.72717647895249</v>
+        <v>11.4930278080943</v>
       </c>
       <c r="C14">
-        <v>12.20835296548356</v>
+        <v>9.250259477924896</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.448607062058255</v>
+        <v>13.6145700057654</v>
       </c>
       <c r="F14">
-        <v>51.35810681773349</v>
+        <v>50.70826694986989</v>
       </c>
       <c r="G14">
-        <v>2.100755299957259</v>
+        <v>3.71152731800996</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.86828901386919</v>
+        <v>33.08857745987579</v>
       </c>
       <c r="J14">
-        <v>6.89469892946227</v>
+        <v>10.03612723026308</v>
       </c>
       <c r="K14">
-        <v>14.2519201592441</v>
+        <v>12.65580653717359</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.34967939039767</v>
+        <v>16.97339529574281</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.63986390423821</v>
+        <v>11.47355295059069</v>
       </c>
       <c r="C15">
-        <v>12.13431597438193</v>
+        <v>9.230424548355137</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.392059787051487</v>
+        <v>13.61538404404604</v>
       </c>
       <c r="F15">
-        <v>51.14072085205282</v>
+        <v>50.66281633792882</v>
       </c>
       <c r="G15">
-        <v>2.101853732171442</v>
+        <v>3.711849586865047</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.77283782215886</v>
+        <v>33.0667143674016</v>
       </c>
       <c r="J15">
-        <v>6.893909602846845</v>
+        <v>10.03629710255645</v>
       </c>
       <c r="K15">
-        <v>14.16792522107296</v>
+        <v>12.64208179504756</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.2675901784142</v>
+        <v>16.96930556160498</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.13272595783062</v>
+        <v>11.36238660093681</v>
       </c>
       <c r="C16">
-        <v>11.70528060575927</v>
+        <v>9.116665250210138</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.063533016660545</v>
+        <v>13.62124309928975</v>
       </c>
       <c r="F16">
-        <v>49.89201762914244</v>
+        <v>50.40442148481563</v>
       </c>
       <c r="G16">
-        <v>2.10816255082153</v>
+        <v>3.71372370868858</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.2277633430628</v>
+        <v>32.94227253286429</v>
       </c>
       <c r="J16">
-        <v>6.88996412033903</v>
+        <v>10.03741684652209</v>
       </c>
       <c r="K16">
-        <v>13.68025632327763</v>
+        <v>12.56418981981415</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.79092355978809</v>
+        <v>16.94717305010506</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.81546012409576</v>
+        <v>11.29461801862241</v>
       </c>
       <c r="C17">
-        <v>11.43775084659489</v>
+        <v>9.046832203040701</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.889211042403453</v>
+        <v>13.62590374840529</v>
       </c>
       <c r="F17">
-        <v>49.12338973503275</v>
+        <v>50.24779869404065</v>
       </c>
       <c r="G17">
-        <v>2.11204782551616</v>
+        <v>3.71489787289171</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.89506090914371</v>
+        <v>32.86670315647255</v>
       </c>
       <c r="J17">
-        <v>6.888044446420577</v>
+        <v>10.03823428192665</v>
       </c>
       <c r="K17">
-        <v>13.37534058943177</v>
+        <v>12.5171047533687</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.49284027528645</v>
+        <v>16.93476400364911</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.63067800041498</v>
+        <v>11.25581233186818</v>
       </c>
       <c r="C18">
-        <v>11.28225215190074</v>
+        <v>9.006664627151146</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.79785360268397</v>
+        <v>13.62897654963247</v>
       </c>
       <c r="F18">
-        <v>48.68037153125849</v>
+        <v>50.15842989998591</v>
       </c>
       <c r="G18">
-        <v>2.114288964594481</v>
+        <v>3.715582232520501</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.70430969656831</v>
+        <v>32.82352752502359</v>
       </c>
       <c r="J18">
-        <v>6.887118637952691</v>
+        <v>10.03875240399475</v>
       </c>
       <c r="K18">
-        <v>13.19781082928173</v>
+        <v>12.49028819528267</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.31927489253532</v>
+        <v>16.92805791591607</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.56771556691367</v>
+        <v>11.24270458988032</v>
       </c>
       <c r="C19">
-        <v>11.22932148908238</v>
+        <v>8.993065789791387</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.766866414673288</v>
+        <v>13.63008431372636</v>
       </c>
       <c r="F19">
-        <v>48.53021803337029</v>
+        <v>50.12829613286191</v>
       </c>
       <c r="G19">
-        <v>2.115048963748263</v>
+        <v>3.715815495096443</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.63982895331176</v>
+        <v>32.80895937161185</v>
       </c>
       <c r="J19">
-        <v>6.88683528311894</v>
+        <v>10.03893606679384</v>
       </c>
       <c r="K19">
-        <v>13.13732945925453</v>
+        <v>12.48125498072354</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.26014210775612</v>
+        <v>16.92586158597608</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.84947073650553</v>
+        <v>11.30181454632226</v>
       </c>
       <c r="C20">
-        <v>11.4663971115914</v>
+        <v>9.054266547396688</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.906092641547721</v>
+        <v>13.62536703650931</v>
       </c>
       <c r="F20">
-        <v>49.20530787238316</v>
+        <v>50.26439775982126</v>
       </c>
       <c r="G20">
-        <v>2.111633585720315</v>
+        <v>3.714771949041641</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.93041433879696</v>
+        <v>32.87471778501679</v>
       </c>
       <c r="J20">
-        <v>6.888230216689564</v>
+        <v>10.03814230123102</v>
       </c>
       <c r="K20">
-        <v>13.40802109131263</v>
+        <v>12.52208975049169</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.5247899685474</v>
+        <v>16.93604037325651</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.76892664277299</v>
+        <v>11.5023736987054</v>
       </c>
       <c r="C21">
-        <v>12.24377276356802</v>
+        <v>9.259768688491212</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.475644626205577</v>
+        <v>13.61420076333494</v>
       </c>
       <c r="F21">
-        <v>51.46229673796407</v>
+        <v>50.73009752760876</v>
       </c>
       <c r="G21">
-        <v>2.100228787242618</v>
+        <v>3.711373263862412</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.91409487079462</v>
+        <v>33.09907615471889</v>
       </c>
       <c r="J21">
-        <v>6.895087869928217</v>
+        <v>10.03604835954844</v>
       </c>
       <c r="K21">
-        <v>14.29208753128407</v>
+        <v>12.6624010393739</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.38893420686888</v>
+        <v>16.97537943186562</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.35020175323446</v>
+        <v>11.63466162544358</v>
       </c>
       <c r="C22">
-        <v>12.73808545027474</v>
+        <v>9.393744026638636</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.851966100479594</v>
+        <v>13.61038837289211</v>
       </c>
       <c r="F22">
-        <v>52.92874981279796</v>
+        <v>51.04040098895357</v>
       </c>
       <c r="G22">
-        <v>2.092812226605804</v>
+        <v>3.709231727227666</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.56265723792293</v>
+        <v>33.24815300958318</v>
       </c>
       <c r="J22">
-        <v>6.901282783780295</v>
+        <v>10.0351070052449</v>
       </c>
       <c r="K22">
-        <v>14.8515708040706</v>
+        <v>12.75628289688825</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.93561753031132</v>
+        <v>17.00488938813142</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.04171913366583</v>
+        <v>11.56396210001082</v>
       </c>
       <c r="C23">
-        <v>12.47548207903054</v>
+        <v>9.322284348791705</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.652279747502829</v>
+        <v>13.61210458848404</v>
       </c>
       <c r="F23">
-        <v>52.1468678297519</v>
+        <v>50.87426411427939</v>
       </c>
       <c r="G23">
-        <v>2.096768226473388</v>
+        <v>3.710367439330235</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.21597178195289</v>
+        <v>33.16837082366231</v>
       </c>
       <c r="J23">
-        <v>6.897813293979531</v>
+        <v>10.03557033411208</v>
       </c>
       <c r="K23">
-        <v>14.55459588839917</v>
+        <v>12.70598591595296</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.64545832804397</v>
+        <v>16.98879382396921</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.83410196625142</v>
+        <v>11.29856050848684</v>
       </c>
       <c r="C24">
-        <v>11.45345141359142</v>
+        <v>9.050905537847335</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.898461626307254</v>
+        <v>13.62560845873012</v>
       </c>
       <c r="F24">
-        <v>49.16827617631036</v>
+        <v>50.2568912124571</v>
       </c>
       <c r="G24">
-        <v>2.111820840134519</v>
+        <v>3.714828850186652</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.91442942347487</v>
+        <v>32.87109352823872</v>
       </c>
       <c r="J24">
-        <v>6.888145677366967</v>
+        <v>10.03818373567002</v>
       </c>
       <c r="K24">
-        <v>13.39325319029661</v>
+        <v>12.51983524233976</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.51035235205064</v>
+        <v>16.93546199283935</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.44318267220137</v>
+        <v>11.01909398834256</v>
       </c>
       <c r="C25">
-        <v>10.36591131355855</v>
+        <v>8.758328074466375</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.226611296265482</v>
+        <v>13.65516574988953</v>
       </c>
       <c r="F25">
-        <v>45.92104612551833</v>
+        <v>49.61858348625354</v>
       </c>
       <c r="G25">
-        <v>2.12831270683319</v>
+        <v>3.719986068541739</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.53392178627527</v>
+        <v>32.5615850745241</v>
       </c>
       <c r="J25">
-        <v>6.884476414837083</v>
+        <v>10.04283595407114</v>
       </c>
       <c r="K25">
-        <v>12.05794004991246</v>
+        <v>12.32929403495316</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.20471113805001</v>
+        <v>16.8944395330318</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.82091761467928</v>
+        <v>11.33895395394987</v>
       </c>
       <c r="C2">
-        <v>8.544792735556168</v>
+        <v>9.552697026741431</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.68982799324578</v>
+        <v>7.724014563622503</v>
       </c>
       <c r="F2">
-        <v>49.17445699580077</v>
+        <v>43.50676476830801</v>
       </c>
       <c r="G2">
-        <v>3.724083580899947</v>
+        <v>2.140770719123233</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.34390339147611</v>
+        <v>28.53735915313709</v>
       </c>
       <c r="J2">
-        <v>10.04783658443079</v>
+        <v>6.886995329439967</v>
       </c>
       <c r="K2">
-        <v>12.19871911858792</v>
+        <v>10.99952473669831</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.87858594162278</v>
+        <v>11.20330277565579</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.69221808657815</v>
+        <v>10.53875922574693</v>
       </c>
       <c r="C3">
-        <v>8.402181951277045</v>
+        <v>8.979256072482201</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.72135786726382</v>
+        <v>7.380450619433327</v>
       </c>
       <c r="F3">
-        <v>48.89058132267645</v>
+        <v>41.86139101395103</v>
       </c>
       <c r="G3">
-        <v>3.727049664549777</v>
+        <v>2.149452058960787</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.20303204209402</v>
+        <v>27.8747797000967</v>
       </c>
       <c r="J3">
-        <v>10.05220735619478</v>
+        <v>6.891695151263849</v>
       </c>
       <c r="K3">
-        <v>12.11671602305847</v>
+        <v>10.23341805600147</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.87685127683544</v>
+        <v>10.73489851645807</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.61624489910634</v>
+        <v>10.02128609059127</v>
       </c>
       <c r="C4">
-        <v>8.315971919726122</v>
+        <v>8.616635447902365</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.74467724691989</v>
+        <v>7.168907741099011</v>
       </c>
       <c r="F4">
-        <v>48.72502639962015</v>
+        <v>40.84901888068892</v>
       </c>
       <c r="G4">
-        <v>3.728964763229378</v>
+        <v>2.154912455151116</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.11990677658027</v>
+        <v>27.4745041059039</v>
       </c>
       <c r="J4">
-        <v>10.05537503852897</v>
+        <v>6.895977402743403</v>
       </c>
       <c r="K4">
-        <v>12.06969799872791</v>
+        <v>9.763425602140869</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.8802433366178</v>
+        <v>10.44664786171479</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.58609354199783</v>
+        <v>9.803755686944566</v>
       </c>
       <c r="C5">
-        <v>8.281228882967403</v>
+        <v>8.46632645406196</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.75517485861391</v>
+        <v>7.08270420067648</v>
       </c>
       <c r="F5">
-        <v>48.65980473168558</v>
+        <v>40.43637054651354</v>
       </c>
       <c r="G5">
-        <v>3.729768881173714</v>
+        <v>2.157171999613523</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.08689308786929</v>
+        <v>27.31308132838643</v>
       </c>
       <c r="J5">
-        <v>10.05678757681297</v>
+        <v>6.898062535082801</v>
       </c>
       <c r="K5">
-        <v>12.05139447732544</v>
+        <v>9.61284898438565</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.88274799415289</v>
+        <v>10.32919343785115</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.58113693564802</v>
+        <v>9.767230652286992</v>
       </c>
       <c r="C6">
-        <v>8.275484666574179</v>
+        <v>8.441218318154981</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.75697802620585</v>
+        <v>7.068395054292269</v>
       </c>
       <c r="F6">
-        <v>48.64911143221967</v>
+        <v>40.3678582402647</v>
       </c>
       <c r="G6">
-        <v>3.729903838243018</v>
+        <v>2.157549319702813</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.08146352333415</v>
+        <v>27.28638083188785</v>
       </c>
       <c r="J6">
-        <v>10.05702947613073</v>
+        <v>6.898428997031751</v>
       </c>
       <c r="K6">
-        <v>12.04840745304734</v>
+        <v>9.587736049462089</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.88323171091791</v>
+        <v>10.30969628907021</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.61583494075203</v>
+        <v>10.01837945262503</v>
       </c>
       <c r="C7">
-        <v>8.315501728090515</v>
+        <v>8.614618436167811</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.74481479511009</v>
+        <v>7.167744949180174</v>
       </c>
       <c r="F7">
-        <v>48.72413765888356</v>
+        <v>40.84345355252943</v>
       </c>
       <c r="G7">
-        <v>3.728975511775121</v>
+        <v>2.154942786758103</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.11945804186879</v>
+        <v>27.47232018518139</v>
       </c>
       <c r="J7">
-        <v>10.0553935958697</v>
+        <v>6.89600416080089</v>
       </c>
       <c r="K7">
-        <v>12.06944765862416</v>
+        <v>9.761402361848551</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.88027256935865</v>
+        <v>10.4450635455173</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.77593476890722</v>
+        <v>11.06842484076233</v>
       </c>
       <c r="C8">
-        <v>8.495368458445023</v>
+        <v>9.357213764564209</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.69987712156025</v>
+        <v>7.605761639142266</v>
       </c>
       <c r="F8">
-        <v>49.07478894527618</v>
+        <v>42.94011889313259</v>
       </c>
       <c r="G8">
-        <v>3.725086846470136</v>
+        <v>2.143738116265309</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.29463957483985</v>
+        <v>28.30756785034848</v>
       </c>
       <c r="J8">
-        <v>10.04924315496381</v>
+        <v>6.888319102334217</v>
       </c>
       <c r="K8">
-        <v>12.16976459567461</v>
+        <v>10.74043757064184</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.87706390395017</v>
+        <v>11.04202880387109</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.1121698121545</v>
+        <v>12.923895449022</v>
       </c>
       <c r="C9">
-        <v>8.856710905672585</v>
+        <v>10.7268706682423</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.6432053219045</v>
+        <v>8.454372006412402</v>
       </c>
       <c r="F9">
-        <v>49.82971865173432</v>
+        <v>47.0190663652382</v>
       </c>
       <c r="G9">
-        <v>3.718202451527256</v>
+        <v>2.122714416169315</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.66429779204037</v>
+        <v>29.99587720854905</v>
       </c>
       <c r="J9">
-        <v>10.04102405113513</v>
+        <v>6.884864127233326</v>
       </c>
       <c r="K9">
-        <v>12.39202732242138</v>
+        <v>12.51916439387461</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.90603795925323</v>
+        <v>12.65571559799073</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.37014178046914</v>
+        <v>14.16861935909473</v>
       </c>
       <c r="C10">
-        <v>9.124632379941907</v>
+        <v>11.7355899405854</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.62076440326372</v>
+        <v>9.086789330974987</v>
       </c>
       <c r="F10">
-        <v>50.42238885041401</v>
+        <v>49.97959594488653</v>
       </c>
       <c r="G10">
-        <v>3.713590947596527</v>
+        <v>2.107720020491315</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.95093435079709</v>
+        <v>31.26581021621385</v>
       </c>
       <c r="J10">
-        <v>10.03733006999926</v>
+        <v>6.890207739631969</v>
       </c>
       <c r="K10">
-        <v>12.5695979132339</v>
+        <v>13.71476070192466</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.94864731662132</v>
+        <v>13.82465269405076</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.48930204034355</v>
+        <v>14.71050561449296</v>
       </c>
       <c r="C11">
-        <v>9.246466898119028</v>
+        <v>12.19421299905676</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.61472105614144</v>
+        <v>9.437810658011772</v>
       </c>
       <c r="F11">
-        <v>50.69956756056555</v>
+        <v>51.31654746202482</v>
       </c>
       <c r="G11">
-        <v>3.71158884010067</v>
+        <v>2.100965305986479</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.08439333640776</v>
+        <v>31.85002830628541</v>
       </c>
       <c r="J11">
-        <v>10.03615914895285</v>
+        <v>6.894545707201363</v>
       </c>
       <c r="K11">
-        <v>12.65317907093557</v>
+        <v>14.23588195575768</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.97260818085384</v>
+        <v>14.33400533450063</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.5346369673955</v>
+        <v>14.91232536454891</v>
       </c>
       <c r="C12">
-        <v>9.292549517229229</v>
+        <v>12.36551511654809</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.61303065647377</v>
+        <v>9.568502138186089</v>
       </c>
       <c r="F12">
-        <v>50.80555381324127</v>
+        <v>51.82133902549413</v>
       </c>
       <c r="G12">
-        <v>3.710844365425079</v>
+        <v>2.098414083402564</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.13535261134326</v>
+        <v>32.07222617547752</v>
       </c>
       <c r="J12">
-        <v>10.03578903026289</v>
+        <v>6.896480644158913</v>
       </c>
       <c r="K12">
-        <v>12.68520571325775</v>
+        <v>14.43006767659621</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.98233406572315</v>
+        <v>14.52377340742045</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.5248646367723</v>
+        <v>14.86900821024458</v>
       </c>
       <c r="C13">
-        <v>9.282627909495208</v>
+        <v>12.32872571570839</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.61336813221394</v>
+        <v>9.540453546563025</v>
       </c>
       <c r="F13">
-        <v>50.78268324172787</v>
+        <v>51.7126893816754</v>
       </c>
       <c r="G13">
-        <v>3.711004094214453</v>
+        <v>2.09896328889694</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.12435920678642</v>
+        <v>32.02432812549603</v>
       </c>
       <c r="J13">
-        <v>10.03586548239385</v>
+        <v>6.896050618332248</v>
       </c>
       <c r="K13">
-        <v>12.67829190249715</v>
+        <v>14.38838442181745</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.98021050641026</v>
+        <v>14.48304004947194</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.4930278080943</v>
+        <v>14.72717647895238</v>
       </c>
       <c r="C14">
-        <v>9.250259477924896</v>
+        <v>12.20835296548361</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.6145700057654</v>
+        <v>9.448607062058164</v>
       </c>
       <c r="F14">
-        <v>50.70826694986989</v>
+        <v>51.35810681773353</v>
       </c>
       <c r="G14">
-        <v>3.71152731800996</v>
+        <v>2.100755299957389</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.08857745987579</v>
+        <v>31.86828901386929</v>
       </c>
       <c r="J14">
-        <v>10.03612723026308</v>
+        <v>6.89469892946227</v>
       </c>
       <c r="K14">
-        <v>12.65580653717359</v>
+        <v>14.25192015924406</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.97339529574281</v>
+        <v>14.34967939039759</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.47355295059069</v>
+        <v>14.63986390423832</v>
       </c>
       <c r="C15">
-        <v>9.230424548355137</v>
+        <v>12.13431597438203</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.61538404404604</v>
+        <v>9.392059787051284</v>
       </c>
       <c r="F15">
-        <v>50.66281633792882</v>
+        <v>51.14072085205287</v>
       </c>
       <c r="G15">
-        <v>3.711849586865047</v>
+        <v>2.101853732171179</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.0667143674016</v>
+        <v>31.77283782215886</v>
       </c>
       <c r="J15">
-        <v>10.03629710255645</v>
+        <v>6.89390960284685</v>
       </c>
       <c r="K15">
-        <v>12.64208179504756</v>
+        <v>14.1679252210731</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.96930556160498</v>
+        <v>14.26759017841417</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.36238660093681</v>
+        <v>14.13272595783061</v>
       </c>
       <c r="C16">
-        <v>9.116665250210138</v>
+        <v>11.70528060575927</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.62124309928975</v>
+        <v>9.063533016660262</v>
       </c>
       <c r="F16">
-        <v>50.40442148481563</v>
+        <v>49.89201762914266</v>
       </c>
       <c r="G16">
-        <v>3.71372370868858</v>
+        <v>2.108162550821264</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.94227253286429</v>
+        <v>31.22776334306294</v>
       </c>
       <c r="J16">
-        <v>10.03741684652209</v>
+        <v>6.889964120338968</v>
       </c>
       <c r="K16">
-        <v>12.56418981981415</v>
+        <v>13.68025632327762</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.94717305010506</v>
+        <v>13.79092355978792</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.29461801862241</v>
+        <v>13.81546012409579</v>
       </c>
       <c r="C17">
-        <v>9.046832203040701</v>
+        <v>11.43775084659482</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.62590374840529</v>
+        <v>8.889211042403394</v>
       </c>
       <c r="F17">
-        <v>50.24779869404065</v>
+        <v>49.12338973503284</v>
       </c>
       <c r="G17">
-        <v>3.71489787289171</v>
+        <v>2.112047825516158</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.86670315647255</v>
+        <v>30.89506090914384</v>
       </c>
       <c r="J17">
-        <v>10.03823428192665</v>
+        <v>6.888044446420621</v>
       </c>
       <c r="K17">
-        <v>12.5171047533687</v>
+        <v>13.37534058943176</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.93476400364911</v>
+        <v>13.4928402752864</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.25581233186818</v>
+        <v>13.63067800041498</v>
       </c>
       <c r="C18">
-        <v>9.006664627151146</v>
+        <v>11.28225215190072</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.62897654963247</v>
+        <v>8.797853602683999</v>
       </c>
       <c r="F18">
-        <v>50.15842989998591</v>
+        <v>48.68037153125853</v>
       </c>
       <c r="G18">
-        <v>3.715582232520501</v>
+        <v>2.114288964594607</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.82352752502359</v>
+        <v>30.70430969656829</v>
       </c>
       <c r="J18">
-        <v>10.03875240399475</v>
+        <v>6.887118637952677</v>
       </c>
       <c r="K18">
-        <v>12.49028819528267</v>
+        <v>13.19781082928173</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.92805791591607</v>
+        <v>13.3192748925353</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.24270458988032</v>
+        <v>13.56771556691373</v>
       </c>
       <c r="C19">
-        <v>8.993065789791387</v>
+        <v>11.22932148908231</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.63008431372636</v>
+        <v>8.766866414673212</v>
       </c>
       <c r="F19">
-        <v>50.12829613286191</v>
+        <v>48.53021803337042</v>
       </c>
       <c r="G19">
-        <v>3.715815495096443</v>
+        <v>2.115048963748268</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.80895937161185</v>
+        <v>30.63982895331189</v>
       </c>
       <c r="J19">
-        <v>10.03893606679384</v>
+        <v>6.886835283119018</v>
       </c>
       <c r="K19">
-        <v>12.48125498072354</v>
+        <v>13.13732945925453</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.92586158597608</v>
+        <v>13.26014210775604</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.30181454632226</v>
+        <v>13.84947073650536</v>
       </c>
       <c r="C20">
-        <v>9.054266547396688</v>
+        <v>11.46639711159142</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.62536703650931</v>
+        <v>8.906092641547698</v>
       </c>
       <c r="F20">
-        <v>50.26439775982126</v>
+        <v>49.20530787238317</v>
       </c>
       <c r="G20">
-        <v>3.714771949041641</v>
+        <v>2.111633585720581</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.87471778501679</v>
+        <v>30.93041433879716</v>
       </c>
       <c r="J20">
-        <v>10.03814230123102</v>
+        <v>6.888230216689606</v>
       </c>
       <c r="K20">
-        <v>12.52208975049169</v>
+        <v>13.40802109131254</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.93604037325651</v>
+        <v>13.52478996854736</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.5023736987054</v>
+        <v>14.76892664277288</v>
       </c>
       <c r="C21">
-        <v>9.259768688491212</v>
+        <v>12.243772763568</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.61420076333494</v>
+        <v>9.475644626205529</v>
       </c>
       <c r="F21">
-        <v>50.73009752760876</v>
+        <v>51.46229673796417</v>
       </c>
       <c r="G21">
-        <v>3.711373263862412</v>
+        <v>2.100228787242741</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.09907615471889</v>
+        <v>31.91409487079473</v>
       </c>
       <c r="J21">
-        <v>10.03604835954844</v>
+        <v>6.895087869928195</v>
       </c>
       <c r="K21">
-        <v>12.6624010393739</v>
+        <v>14.292087531284</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.97537943186562</v>
+        <v>14.38893420686879</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.63466162544358</v>
+        <v>15.35020175323433</v>
       </c>
       <c r="C22">
-        <v>9.393744026638636</v>
+        <v>12.73808545027475</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.61038837289211</v>
+        <v>9.851966100479663</v>
       </c>
       <c r="F22">
-        <v>51.04040098895357</v>
+        <v>52.92874981279788</v>
       </c>
       <c r="G22">
-        <v>3.709231727227666</v>
+        <v>2.092812226605931</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.24815300958318</v>
+        <v>32.56265723792296</v>
       </c>
       <c r="J22">
-        <v>10.0351070052449</v>
+        <v>6.901282783780303</v>
       </c>
       <c r="K22">
-        <v>12.75628289688825</v>
+        <v>14.85157080407056</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.00488938813142</v>
+        <v>14.93561753031132</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.56396210001082</v>
+        <v>15.04171913366572</v>
       </c>
       <c r="C23">
-        <v>9.322284348791705</v>
+        <v>12.47548207903051</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.61210458848404</v>
+        <v>9.652279747502945</v>
       </c>
       <c r="F23">
-        <v>50.87426411427939</v>
+        <v>52.14686782975186</v>
       </c>
       <c r="G23">
-        <v>3.710367439330235</v>
+        <v>2.096768226473263</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.16837082366231</v>
+        <v>32.21597178195291</v>
       </c>
       <c r="J23">
-        <v>10.03557033411208</v>
+        <v>6.897813293979473</v>
       </c>
       <c r="K23">
-        <v>12.70598591595296</v>
+        <v>14.55459588839907</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.98879382396921</v>
+        <v>14.64545832804398</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.29856050848684</v>
+        <v>13.83410196625144</v>
       </c>
       <c r="C24">
-        <v>9.050905537847335</v>
+        <v>11.45345141359138</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.62560845873012</v>
+        <v>8.898461626307224</v>
       </c>
       <c r="F24">
-        <v>50.2568912124571</v>
+        <v>49.16827617631048</v>
       </c>
       <c r="G24">
-        <v>3.714828850186652</v>
+        <v>2.111820840134381</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.87109352823872</v>
+        <v>30.91442942347498</v>
       </c>
       <c r="J24">
-        <v>10.03818373567002</v>
+        <v>6.888145677367037</v>
       </c>
       <c r="K24">
-        <v>12.51983524233976</v>
+        <v>13.39325319029659</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.93546199283935</v>
+        <v>13.51035235205054</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.01909398834256</v>
+        <v>12.44318267220131</v>
       </c>
       <c r="C25">
-        <v>8.758328074466375</v>
+        <v>10.36591131355853</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.65516574988953</v>
+        <v>8.226611296265423</v>
       </c>
       <c r="F25">
-        <v>49.61858348625354</v>
+        <v>45.92104612551843</v>
       </c>
       <c r="G25">
-        <v>3.719986068541739</v>
+        <v>2.128312706833326</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.5615850745241</v>
+        <v>29.53392178627547</v>
       </c>
       <c r="J25">
-        <v>10.04283595407114</v>
+        <v>6.884476414837143</v>
       </c>
       <c r="K25">
-        <v>12.32929403495316</v>
+        <v>12.05794004991241</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.8944395330318</v>
+        <v>12.20471113805001</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.33895395394987</v>
+        <v>13.27585693143946</v>
       </c>
       <c r="C2">
-        <v>9.552697026741431</v>
+        <v>8.743113412135751</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.724014563622503</v>
+        <v>23.43646254612201</v>
       </c>
       <c r="F2">
-        <v>43.50676476830801</v>
+        <v>37.711421363292</v>
       </c>
       <c r="G2">
-        <v>2.140770719123233</v>
+        <v>27.64779691703441</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.700393485273219</v>
       </c>
       <c r="I2">
-        <v>28.53735915313709</v>
+        <v>3.174472532969145</v>
       </c>
       <c r="J2">
-        <v>6.886995329439967</v>
+        <v>10.39678177366502</v>
       </c>
       <c r="K2">
-        <v>10.99952473669831</v>
+        <v>15.77160970178821</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.718698093582517</v>
       </c>
       <c r="M2">
-        <v>11.20330277565579</v>
+        <v>12.21511183862754</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.53875922574693</v>
+        <v>12.42594241077256</v>
       </c>
       <c r="C3">
-        <v>8.979256072482201</v>
+        <v>8.186667869699853</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.380450619433327</v>
+        <v>21.96692629993321</v>
       </c>
       <c r="F3">
-        <v>41.86139101395103</v>
+        <v>36.05008853678979</v>
       </c>
       <c r="G3">
-        <v>2.149452058960787</v>
+        <v>27.38648631160044</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.982622394501686</v>
       </c>
       <c r="I3">
-        <v>27.8747797000967</v>
+        <v>3.352452342992128</v>
       </c>
       <c r="J3">
-        <v>6.891695151263849</v>
+        <v>10.44488231542475</v>
       </c>
       <c r="K3">
-        <v>10.23341805600147</v>
+        <v>15.89837358497849</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.638775407643308</v>
       </c>
       <c r="M3">
-        <v>10.73489851645807</v>
+        <v>11.48937960094801</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.02128609059127</v>
+        <v>11.87256174591484</v>
       </c>
       <c r="C4">
-        <v>8.616635447902365</v>
+        <v>7.830371392186965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.168907741099011</v>
+        <v>21.01851849924637</v>
       </c>
       <c r="F4">
-        <v>40.84901888068892</v>
+        <v>34.99699851285096</v>
       </c>
       <c r="G4">
-        <v>2.154912455151116</v>
+        <v>27.23577816008991</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.162028805259283</v>
       </c>
       <c r="I4">
-        <v>27.4745041059039</v>
+        <v>3.465919153077777</v>
       </c>
       <c r="J4">
-        <v>6.895977402743403</v>
+        <v>10.47711336359557</v>
       </c>
       <c r="K4">
-        <v>9.763425602140869</v>
+        <v>15.97939569601451</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.587654572582069</v>
       </c>
       <c r="M4">
-        <v>10.44664786171479</v>
+        <v>11.02031528603016</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.803755686944566</v>
+        <v>11.63695135447854</v>
       </c>
       <c r="C5">
-        <v>8.46632645406196</v>
+        <v>7.690659801911195</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.08270420067648</v>
+        <v>20.63167756830738</v>
       </c>
       <c r="F5">
-        <v>40.43637054651354</v>
+        <v>34.54951104399947</v>
       </c>
       <c r="G5">
-        <v>2.157171999613523</v>
+        <v>27.14857315393468</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.236870563085922</v>
       </c>
       <c r="I5">
-        <v>27.31308132838643</v>
+        <v>3.515928341359747</v>
       </c>
       <c r="J5">
-        <v>6.898062535082801</v>
+        <v>10.48598058523171</v>
       </c>
       <c r="K5">
-        <v>9.61284898438565</v>
+        <v>16.00321007369483</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.565205420614803</v>
       </c>
       <c r="M5">
-        <v>10.32919343785115</v>
+        <v>10.82493218254046</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.767230652286992</v>
+        <v>11.59470010350713</v>
       </c>
       <c r="C6">
-        <v>8.441218318154981</v>
+        <v>7.678446257068281</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.068395054292269</v>
+        <v>20.58042688397506</v>
       </c>
       <c r="F6">
-        <v>40.3678582402647</v>
+        <v>34.46188720702882</v>
       </c>
       <c r="G6">
-        <v>2.157549319702813</v>
+        <v>27.09984824272673</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.249596967812174</v>
       </c>
       <c r="I6">
-        <v>27.28638083188785</v>
+        <v>3.527761747941025</v>
       </c>
       <c r="J6">
-        <v>6.898428997031751</v>
+        <v>10.48148563017884</v>
       </c>
       <c r="K6">
-        <v>9.587736049462089</v>
+        <v>15.99504904354442</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.560105229016472</v>
       </c>
       <c r="M6">
-        <v>10.30969628907021</v>
+        <v>10.79412046290626</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.01837945262503</v>
+        <v>11.86235178535312</v>
       </c>
       <c r="C7">
-        <v>8.614618436167811</v>
+        <v>7.858398689971137</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.167744949180174</v>
+        <v>21.04981412836997</v>
       </c>
       <c r="F7">
-        <v>40.84345355252943</v>
+        <v>34.95644691536042</v>
       </c>
       <c r="G7">
-        <v>2.154942786758103</v>
+        <v>27.14101983523215</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.16357899477372</v>
       </c>
       <c r="I7">
-        <v>27.47232018518139</v>
+        <v>3.475769076859668</v>
       </c>
       <c r="J7">
-        <v>6.89600416080089</v>
+        <v>10.46084942392734</v>
       </c>
       <c r="K7">
-        <v>9.761402361848551</v>
+        <v>15.94649157373369</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.5837220477324</v>
       </c>
       <c r="M7">
-        <v>10.4450635455173</v>
+        <v>11.02301711857357</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.06842484076233</v>
+        <v>12.98070571854877</v>
       </c>
       <c r="C8">
-        <v>9.357213764564209</v>
+        <v>8.5908794082758</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.605761639142266</v>
+        <v>22.98388085247283</v>
       </c>
       <c r="F8">
-        <v>42.94011889313259</v>
+        <v>37.10256342904047</v>
       </c>
       <c r="G8">
-        <v>2.143738116265309</v>
+        <v>27.43374254098756</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.797136486930543</v>
       </c>
       <c r="I8">
-        <v>28.30756785034848</v>
+        <v>3.246741994995692</v>
       </c>
       <c r="J8">
-        <v>6.888319102334217</v>
+        <v>10.39124332553929</v>
       </c>
       <c r="K8">
-        <v>10.74043757064184</v>
+        <v>15.77075195159329</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.686896775070689</v>
       </c>
       <c r="M8">
-        <v>11.04202880387109</v>
+        <v>11.97635308646951</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.923895449022</v>
+        <v>14.93563030050844</v>
       </c>
       <c r="C9">
-        <v>10.7268706682423</v>
+        <v>9.863670005077331</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.454372006412402</v>
+        <v>26.35163519993408</v>
       </c>
       <c r="F9">
-        <v>47.0190663652382</v>
+        <v>41.08871481785571</v>
       </c>
       <c r="G9">
-        <v>2.122714416169315</v>
+        <v>28.25368351930656</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.985706016047264</v>
       </c>
       <c r="I9">
-        <v>29.99587720854905</v>
+        <v>2.815094475086223</v>
       </c>
       <c r="J9">
-        <v>6.884864127233326</v>
+        <v>10.3066269136625</v>
       </c>
       <c r="K9">
-        <v>12.51916439387461</v>
+        <v>15.51261335103541</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.879420957516236</v>
       </c>
       <c r="M9">
-        <v>12.65571559799073</v>
+        <v>13.64990450922165</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.16861935909473</v>
+        <v>16.22153083490868</v>
       </c>
       <c r="C10">
-        <v>11.7355899405854</v>
+        <v>10.71256721828308</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.086789330974987</v>
+        <v>28.20481475990618</v>
       </c>
       <c r="F10">
-        <v>49.97959594488653</v>
+        <v>43.37847878054077</v>
       </c>
       <c r="G10">
-        <v>2.107720020491315</v>
+        <v>28.61508607777766</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.418257686016597</v>
       </c>
       <c r="I10">
-        <v>31.26581021621385</v>
+        <v>2.528304544300604</v>
       </c>
       <c r="J10">
-        <v>6.890207739631969</v>
+        <v>10.20774791080339</v>
       </c>
       <c r="K10">
-        <v>13.71476070192466</v>
+        <v>15.24949206869969</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.967008369859941</v>
       </c>
       <c r="M10">
-        <v>13.82465269405076</v>
+        <v>14.75875504173688</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.71050561449296</v>
+        <v>16.79250541909904</v>
       </c>
       <c r="C11">
-        <v>12.19421299905676</v>
+        <v>10.87880908358046</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.437810658011772</v>
+        <v>25.53016020806241</v>
       </c>
       <c r="F11">
-        <v>51.31654746202482</v>
+        <v>40.59894978444093</v>
       </c>
       <c r="G11">
-        <v>2.100965305986479</v>
+        <v>26.47871689914361</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.150504953192898</v>
       </c>
       <c r="I11">
-        <v>31.85002830628541</v>
+        <v>2.539619278020863</v>
       </c>
       <c r="J11">
-        <v>6.894545707201363</v>
+        <v>9.759133138225039</v>
       </c>
       <c r="K11">
-        <v>14.23588195575768</v>
+        <v>14.43807712424323</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.710511985517813</v>
       </c>
       <c r="M11">
-        <v>14.33400533450063</v>
+        <v>15.17718120494866</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.91232536454891</v>
+        <v>17.02299321915412</v>
       </c>
       <c r="C12">
-        <v>12.36551511654809</v>
+        <v>10.8100194895915</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.568502138186089</v>
+        <v>22.82735993664555</v>
       </c>
       <c r="F12">
-        <v>51.82133902549413</v>
+        <v>37.79338890369937</v>
       </c>
       <c r="G12">
-        <v>2.098414083402564</v>
+        <v>24.72749814058177</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.30683814130112</v>
       </c>
       <c r="I12">
-        <v>32.07222617547752</v>
+        <v>2.555612117962487</v>
       </c>
       <c r="J12">
-        <v>6.896480644158913</v>
+        <v>9.430855242019712</v>
       </c>
       <c r="K12">
-        <v>14.43006767659621</v>
+        <v>13.88194297834471</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.594740316456133</v>
       </c>
       <c r="M12">
-        <v>14.52377340742045</v>
+        <v>15.29880717094531</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.86900821024458</v>
+        <v>17.00496588551886</v>
       </c>
       <c r="C13">
-        <v>12.32872571570839</v>
+        <v>10.58926134193426</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.540453546563025</v>
+        <v>19.89967075345324</v>
       </c>
       <c r="F13">
-        <v>51.7126893816754</v>
+        <v>34.69067306192515</v>
       </c>
       <c r="G13">
-        <v>2.09896328889694</v>
+        <v>23.02364004923092</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.569013610636132</v>
       </c>
       <c r="I13">
-        <v>32.02432812549603</v>
+        <v>2.518625848333718</v>
       </c>
       <c r="J13">
-        <v>6.896050618332248</v>
+        <v>9.152462678153066</v>
       </c>
       <c r="K13">
-        <v>14.38838442181745</v>
+        <v>13.44406854924641</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.57855301647805</v>
       </c>
       <c r="M13">
-        <v>14.48304004947194</v>
+        <v>15.20984746444694</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.72717647895238</v>
+        <v>16.87837596510775</v>
       </c>
       <c r="C14">
-        <v>12.20835296548361</v>
+        <v>10.37025457146951</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.448607062058164</v>
+        <v>17.7193275662118</v>
       </c>
       <c r="F14">
-        <v>51.35810681773353</v>
+        <v>32.35131004939951</v>
       </c>
       <c r="G14">
-        <v>2.100755299957389</v>
+        <v>21.84170603240197</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.489422357684401</v>
       </c>
       <c r="I14">
-        <v>31.86828901386929</v>
+        <v>2.533880002071091</v>
       </c>
       <c r="J14">
-        <v>6.89469892946227</v>
+        <v>8.980096677872847</v>
       </c>
       <c r="K14">
-        <v>14.25192015924406</v>
+        <v>13.19345877485348</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.62739530593061</v>
       </c>
       <c r="M14">
-        <v>14.34967939039759</v>
+        <v>15.05273691794984</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.63986390423832</v>
+        <v>16.79159355100298</v>
       </c>
       <c r="C15">
-        <v>12.13431597438203</v>
+        <v>10.29248073571793</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.392059787051284</v>
+        <v>17.1435669874417</v>
       </c>
       <c r="F15">
-        <v>51.14072085205287</v>
+        <v>31.70544116675773</v>
       </c>
       <c r="G15">
-        <v>2.101853732171179</v>
+        <v>21.53792975586403</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.698721052392406</v>
       </c>
       <c r="I15">
-        <v>31.77283782215886</v>
+        <v>2.562778690497885</v>
       </c>
       <c r="J15">
-        <v>6.89390960284685</v>
+        <v>8.943798359779228</v>
       </c>
       <c r="K15">
-        <v>14.1679252210731</v>
+        <v>13.14691869493952</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.644529148372947</v>
       </c>
       <c r="M15">
-        <v>14.26759017841417</v>
+        <v>14.97039631198659</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.13272595783061</v>
+        <v>16.26761751708441</v>
       </c>
       <c r="C16">
-        <v>11.70528060575927</v>
+        <v>9.987416094525226</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.063533016660262</v>
+        <v>16.75194019676929</v>
       </c>
       <c r="F16">
-        <v>49.89201762914266</v>
+        <v>31.18588592011705</v>
       </c>
       <c r="G16">
-        <v>2.108162550821264</v>
+        <v>21.6606597035947</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.442260271353936</v>
       </c>
       <c r="I16">
-        <v>31.22776334306294</v>
+        <v>2.6824660038936</v>
       </c>
       <c r="J16">
-        <v>6.889964120338968</v>
+        <v>9.037334287598007</v>
       </c>
       <c r="K16">
-        <v>13.68025632327762</v>
+        <v>13.34150889712977</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.604812505480596</v>
       </c>
       <c r="M16">
-        <v>13.79092355978792</v>
+        <v>14.53194025655667</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.81546012409579</v>
+        <v>15.92661302204043</v>
       </c>
       <c r="C17">
-        <v>11.43775084659482</v>
+        <v>9.872111909464222</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.889211042403394</v>
+        <v>17.66814020605033</v>
       </c>
       <c r="F17">
-        <v>49.12338973503284</v>
+        <v>32.06910289262388</v>
       </c>
       <c r="G17">
-        <v>2.112047825516158</v>
+        <v>22.37497011463714</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.690818736383459</v>
       </c>
       <c r="I17">
-        <v>30.89506090914384</v>
+        <v>2.747996390921478</v>
       </c>
       <c r="J17">
-        <v>6.888044446420621</v>
+        <v>9.197690968117284</v>
       </c>
       <c r="K17">
-        <v>13.37534058943176</v>
+        <v>13.61573993020082</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.53777214968221</v>
       </c>
       <c r="M17">
-        <v>13.4928402752864</v>
+        <v>14.27601414558736</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.63067800041498</v>
+        <v>15.71724632657969</v>
       </c>
       <c r="C18">
-        <v>11.28225215190072</v>
+        <v>9.891508956996251</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.797853602683999</v>
+        <v>19.80834788795761</v>
       </c>
       <c r="F18">
-        <v>48.68037153125853</v>
+        <v>34.29487881262666</v>
       </c>
       <c r="G18">
-        <v>2.114288964594607</v>
+        <v>23.75928704168513</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.453341383219988</v>
       </c>
       <c r="I18">
-        <v>30.70430969656829</v>
+        <v>2.76180279768385</v>
       </c>
       <c r="J18">
-        <v>6.887118637952677</v>
+        <v>9.450111743307266</v>
       </c>
       <c r="K18">
-        <v>13.19781082928173</v>
+        <v>14.02833741783597</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.499037426803058</v>
       </c>
       <c r="M18">
-        <v>13.3192748925353</v>
+        <v>14.15092338245427</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.56771556691373</v>
+        <v>15.62294312837676</v>
       </c>
       <c r="C19">
-        <v>11.22932148908231</v>
+        <v>10.06327250315965</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.766866414673212</v>
+        <v>22.80243242340594</v>
       </c>
       <c r="F19">
-        <v>48.53021803337042</v>
+        <v>37.37153037410339</v>
       </c>
       <c r="G19">
-        <v>2.115048963748268</v>
+        <v>25.46082259335766</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.118853058509028</v>
       </c>
       <c r="I19">
-        <v>30.63982895331189</v>
+        <v>2.751380557580341</v>
       </c>
       <c r="J19">
-        <v>6.886835283119018</v>
+        <v>9.742327967840669</v>
       </c>
       <c r="K19">
-        <v>13.13732945925453</v>
+        <v>14.50207432871248</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.5738635367858</v>
       </c>
       <c r="M19">
-        <v>13.26014210775604</v>
+        <v>14.15156928637676</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.84947073650536</v>
+        <v>15.87708854006376</v>
       </c>
       <c r="C20">
-        <v>11.46639711159142</v>
+        <v>10.56506757652607</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.906092641547698</v>
+        <v>27.79814080449869</v>
       </c>
       <c r="F20">
-        <v>49.20530787238317</v>
+        <v>42.68007506803826</v>
       </c>
       <c r="G20">
-        <v>2.111633585720581</v>
+        <v>28.23323035997449</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.302696156505374</v>
       </c>
       <c r="I20">
-        <v>30.93041433879716</v>
+        <v>2.635469876404003</v>
       </c>
       <c r="J20">
-        <v>6.888230216689606</v>
+        <v>10.18090446516605</v>
       </c>
       <c r="K20">
-        <v>13.40802109131254</v>
+        <v>15.21187574726513</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.932585144763102</v>
       </c>
       <c r="M20">
-        <v>13.52478996854736</v>
+        <v>14.48822885546886</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.76892664277288</v>
+        <v>16.81661316307263</v>
       </c>
       <c r="C21">
-        <v>12.243772763568</v>
+        <v>11.21915041541577</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.475644626205529</v>
+        <v>29.76769504921208</v>
       </c>
       <c r="F21">
-        <v>51.46229673796417</v>
+        <v>45.07441714595323</v>
       </c>
       <c r="G21">
-        <v>2.100228787242741</v>
+        <v>28.98660300734212</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.66389288345684</v>
       </c>
       <c r="I21">
-        <v>31.91409487079473</v>
+        <v>2.6063148459107</v>
       </c>
       <c r="J21">
-        <v>6.895087869928195</v>
+        <v>10.19081781236513</v>
       </c>
       <c r="K21">
-        <v>14.292087531284</v>
+        <v>15.15722225736544</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.065472452753098</v>
       </c>
       <c r="M21">
-        <v>14.38893420686879</v>
+        <v>15.31181576003508</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.35020175323433</v>
+        <v>17.41179848239829</v>
       </c>
       <c r="C22">
-        <v>12.73808545027475</v>
+        <v>11.59269470110852</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.851966100479663</v>
+        <v>30.76877832386455</v>
       </c>
       <c r="F22">
-        <v>52.92874981279788</v>
+        <v>46.41039193260681</v>
       </c>
       <c r="G22">
-        <v>2.092812226605931</v>
+        <v>29.4696077611494</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.883758124020893</v>
       </c>
       <c r="I22">
-        <v>32.56265723792296</v>
+        <v>2.742280578714988</v>
       </c>
       <c r="J22">
-        <v>6.901282783780303</v>
+        <v>10.19875630303928</v>
       </c>
       <c r="K22">
-        <v>14.85157080407056</v>
+        <v>15.12999221387124</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.133035090954995</v>
       </c>
       <c r="M22">
-        <v>14.93561753031132</v>
+        <v>15.82015237426165</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.04171913366572</v>
+        <v>17.10263736760121</v>
       </c>
       <c r="C23">
-        <v>12.47548207903051</v>
+        <v>11.36880774350697</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.652279747502945</v>
+        <v>30.20716383225673</v>
       </c>
       <c r="F23">
-        <v>52.14686782975186</v>
+        <v>45.73239750979526</v>
       </c>
       <c r="G23">
-        <v>2.096768226473263</v>
+        <v>29.31081138799964</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.767284298397123</v>
       </c>
       <c r="I23">
-        <v>32.21597178195291</v>
+        <v>2.664759505851933</v>
       </c>
       <c r="J23">
-        <v>6.897813293979473</v>
+        <v>10.21294051613514</v>
       </c>
       <c r="K23">
-        <v>14.55459588839907</v>
+        <v>15.18285560644449</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.100907593671302</v>
       </c>
       <c r="M23">
-        <v>14.64545832804398</v>
+        <v>15.54598970277679</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.83410196625144</v>
+        <v>15.8687379918926</v>
       </c>
       <c r="C24">
-        <v>11.45345141359138</v>
+        <v>10.53492815298568</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.898461626307224</v>
+        <v>28.04594582938855</v>
       </c>
       <c r="F24">
-        <v>49.16827617631048</v>
+        <v>43.04086812499265</v>
       </c>
       <c r="G24">
-        <v>2.111820840134381</v>
+        <v>28.5800991264366</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.316993100536104</v>
       </c>
       <c r="I24">
-        <v>30.91442942347498</v>
+        <v>2.614917366042824</v>
       </c>
       <c r="J24">
-        <v>6.888145677367037</v>
+        <v>10.24504223525447</v>
       </c>
       <c r="K24">
-        <v>13.39325319029659</v>
+        <v>15.33243382845179</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.970206247278711</v>
       </c>
       <c r="M24">
-        <v>13.51035235205054</v>
+        <v>14.47315331413701</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.44318267220131</v>
+        <v>14.42268055802741</v>
       </c>
       <c r="C25">
-        <v>10.36591131355853</v>
+        <v>9.576886821958254</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.226611296265423</v>
+        <v>25.53474606453903</v>
       </c>
       <c r="F25">
-        <v>45.92104612551843</v>
+        <v>39.98796950149068</v>
       </c>
       <c r="G25">
-        <v>2.128312706833326</v>
+        <v>27.86055414105762</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.812151897918108</v>
       </c>
       <c r="I25">
-        <v>29.53392178627547</v>
+        <v>2.945705345299696</v>
       </c>
       <c r="J25">
-        <v>6.884476414837143</v>
+        <v>10.29771197345324</v>
       </c>
       <c r="K25">
-        <v>12.05794004991241</v>
+        <v>15.51960307017411</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.822894384482135</v>
       </c>
       <c r="M25">
-        <v>12.20471113805001</v>
+        <v>13.2255639286665</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.27585693143946</v>
+        <v>13.27693662862535</v>
       </c>
       <c r="C2">
-        <v>8.743113412135751</v>
+        <v>9.034150202322806</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.43646254612201</v>
+        <v>24.06799843096841</v>
       </c>
       <c r="F2">
-        <v>37.711421363292</v>
+        <v>37.15006276381841</v>
       </c>
       <c r="G2">
-        <v>27.64779691703441</v>
+        <v>25.27879655845163</v>
       </c>
       <c r="H2">
-        <v>1.700393485273219</v>
+        <v>1.653630218303263</v>
       </c>
       <c r="I2">
-        <v>3.174472532969145</v>
+        <v>2.999149125553182</v>
       </c>
       <c r="J2">
-        <v>10.39678177366502</v>
+        <v>10.22233228904075</v>
       </c>
       <c r="K2">
-        <v>15.77160970178821</v>
+        <v>14.82575380674061</v>
       </c>
       <c r="L2">
-        <v>5.718698093582517</v>
+        <v>12.25746152359395</v>
       </c>
       <c r="M2">
-        <v>12.21511183862754</v>
+        <v>9.65486005326586</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.636224290239087</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.33766838357169</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.42594241077256</v>
+        <v>12.45713895342067</v>
       </c>
       <c r="C3">
-        <v>8.186667869699853</v>
+        <v>8.394969884135246</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.96692629993321</v>
+        <v>22.52809497672988</v>
       </c>
       <c r="F3">
-        <v>36.05008853678979</v>
+        <v>35.56874787237158</v>
       </c>
       <c r="G3">
-        <v>27.38648631160044</v>
+        <v>25.27657949015459</v>
       </c>
       <c r="H3">
-        <v>1.982622394501686</v>
+        <v>1.927743440495516</v>
       </c>
       <c r="I3">
-        <v>3.352452342992128</v>
+        <v>3.152382789154919</v>
       </c>
       <c r="J3">
-        <v>10.44488231542475</v>
+        <v>10.25840905254941</v>
       </c>
       <c r="K3">
-        <v>15.89837358497849</v>
+        <v>15.01006348440962</v>
       </c>
       <c r="L3">
-        <v>5.638775407643308</v>
+        <v>12.44505798404363</v>
       </c>
       <c r="M3">
-        <v>11.48937960094801</v>
+        <v>9.774186369613314</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.563328145861422</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.60532104887156</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.87256174591484</v>
+        <v>11.9238053530124</v>
       </c>
       <c r="C4">
-        <v>7.830371392186965</v>
+        <v>7.984145553953997</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.01851849924637</v>
+        <v>21.53417796552626</v>
       </c>
       <c r="F4">
-        <v>34.99699851285096</v>
+        <v>34.56647379606208</v>
       </c>
       <c r="G4">
-        <v>27.23577816008991</v>
+        <v>25.28733916513811</v>
       </c>
       <c r="H4">
-        <v>2.162028805259283</v>
+        <v>2.102057847807465</v>
       </c>
       <c r="I4">
-        <v>3.465919153077777</v>
+        <v>3.250426541184482</v>
       </c>
       <c r="J4">
-        <v>10.47711336359557</v>
+        <v>10.28107111360486</v>
       </c>
       <c r="K4">
-        <v>15.97939569601451</v>
+        <v>15.12498720198885</v>
       </c>
       <c r="L4">
-        <v>5.587654572582069</v>
+        <v>12.56164228579496</v>
       </c>
       <c r="M4">
-        <v>11.02031528603016</v>
+        <v>9.86393597356366</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.516558282613212</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.13201082968921</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.63695135447854</v>
+        <v>11.69698682532128</v>
       </c>
       <c r="C5">
-        <v>7.690659801911195</v>
+        <v>7.82075975472204</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.63167756830738</v>
+        <v>21.12709880855083</v>
       </c>
       <c r="F5">
-        <v>34.54951104399947</v>
+        <v>34.14113068766923</v>
       </c>
       <c r="G5">
-        <v>27.14857315393468</v>
+        <v>25.26963823420025</v>
       </c>
       <c r="H5">
-        <v>2.236870563085922</v>
+        <v>2.174776970699854</v>
       </c>
       <c r="I5">
-        <v>3.515928341359747</v>
+        <v>3.294559947829614</v>
       </c>
       <c r="J5">
-        <v>10.48598058523171</v>
+        <v>10.28608034409762</v>
       </c>
       <c r="K5">
-        <v>16.00321007369483</v>
+        <v>15.16383186823175</v>
       </c>
       <c r="L5">
-        <v>5.565205420614803</v>
+        <v>12.60154098617176</v>
       </c>
       <c r="M5">
-        <v>10.82493218254046</v>
+        <v>9.899898077417379</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.496034729842393</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.93470665635427</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.59470010350713</v>
+        <v>11.65647537622575</v>
       </c>
       <c r="C6">
-        <v>7.678446257068281</v>
+        <v>7.80393492130275</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.58042688397506</v>
+        <v>21.07105375137092</v>
       </c>
       <c r="F6">
-        <v>34.46188720702882</v>
+        <v>34.05849936990512</v>
       </c>
       <c r="G6">
-        <v>27.09984824272673</v>
+        <v>25.23646727269944</v>
       </c>
       <c r="H6">
-        <v>2.249596967812174</v>
+        <v>2.187126751152305</v>
       </c>
       <c r="I6">
-        <v>3.527761747941025</v>
+        <v>3.306036091293095</v>
       </c>
       <c r="J6">
-        <v>10.48148563017884</v>
+        <v>10.28161335873827</v>
       </c>
       <c r="K6">
-        <v>15.99504904354442</v>
+        <v>15.16004963877277</v>
       </c>
       <c r="L6">
-        <v>5.560105229016472</v>
+        <v>12.59848024162802</v>
       </c>
       <c r="M6">
-        <v>10.79412046290626</v>
+        <v>9.900442504501031</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.491431584194014</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.90337970931558</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.86235178535312</v>
+        <v>11.9160634463961</v>
       </c>
       <c r="C7">
-        <v>7.858398689971137</v>
+        <v>8.00005547798858</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.04981412836997</v>
+        <v>21.58107843000295</v>
       </c>
       <c r="F7">
-        <v>34.95644691536042</v>
+        <v>34.51101556502422</v>
       </c>
       <c r="G7">
-        <v>27.14101983523215</v>
+        <v>25.24659116726163</v>
       </c>
       <c r="H7">
-        <v>2.16357899477372</v>
+        <v>2.103909828162373</v>
       </c>
       <c r="I7">
-        <v>3.475769076859668</v>
+        <v>3.262483869329488</v>
       </c>
       <c r="J7">
-        <v>10.46084942392734</v>
+        <v>10.22844206217561</v>
       </c>
       <c r="K7">
-        <v>15.94649157373369</v>
+        <v>15.08468228206875</v>
       </c>
       <c r="L7">
-        <v>5.5837220477324</v>
+        <v>12.52441586119279</v>
       </c>
       <c r="M7">
-        <v>11.02301711857357</v>
+        <v>9.840765331139096</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.511293511276134</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.13190655833503</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.98070571854877</v>
+        <v>12.99788309854717</v>
       </c>
       <c r="C8">
-        <v>8.5908794082758</v>
+        <v>8.82103017365915</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.98388085247283</v>
+        <v>23.64728835841188</v>
       </c>
       <c r="F8">
-        <v>37.10256342904047</v>
+        <v>36.51419340845048</v>
       </c>
       <c r="G8">
-        <v>27.43374254098756</v>
+        <v>25.30924728529569</v>
       </c>
       <c r="H8">
-        <v>1.797136486930543</v>
+        <v>1.748715406842052</v>
       </c>
       <c r="I8">
-        <v>3.246741994995692</v>
+        <v>3.067022337952323</v>
       </c>
       <c r="J8">
-        <v>10.39124332553929</v>
+        <v>10.09154251214421</v>
       </c>
       <c r="K8">
-        <v>15.77075195159329</v>
+        <v>14.81060143471583</v>
       </c>
       <c r="L8">
-        <v>5.686896775070689</v>
+        <v>12.25501253125571</v>
       </c>
       <c r="M8">
-        <v>11.97635308646951</v>
+        <v>9.640329896308222</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.601595220919312</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.08909588897072</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.93563030050844</v>
+        <v>14.88536516325123</v>
       </c>
       <c r="C9">
-        <v>9.863670005077331</v>
+        <v>10.27815474795168</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.35163519993408</v>
+        <v>27.1886022496148</v>
       </c>
       <c r="F9">
-        <v>41.08871481785571</v>
+        <v>40.29824425934434</v>
       </c>
       <c r="G9">
-        <v>28.25368351930656</v>
+        <v>25.52961998458897</v>
       </c>
       <c r="H9">
-        <v>1.985706016047264</v>
+        <v>2.013454891518152</v>
       </c>
       <c r="I9">
-        <v>2.815094475086223</v>
+        <v>2.694540557989809</v>
       </c>
       <c r="J9">
-        <v>10.3066269136625</v>
+        <v>9.988153271439332</v>
       </c>
       <c r="K9">
-        <v>15.51261335103541</v>
+        <v>14.38311760234373</v>
       </c>
       <c r="L9">
-        <v>5.879420957516236</v>
+        <v>11.82151625000041</v>
       </c>
       <c r="M9">
-        <v>13.64990450922165</v>
+        <v>9.443667953237286</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.775036350618335</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.77729439648111</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.22153083490868</v>
+        <v>16.13803703773144</v>
       </c>
       <c r="C10">
-        <v>10.71256721828308</v>
+        <v>11.18938508390655</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>28.20481475990618</v>
+        <v>29.22926944413111</v>
       </c>
       <c r="F10">
-        <v>43.37847878054077</v>
+        <v>42.37721387566135</v>
       </c>
       <c r="G10">
-        <v>28.61508607777766</v>
+        <v>25.77383434601813</v>
       </c>
       <c r="H10">
-        <v>2.418257686016597</v>
+        <v>2.430648380609869</v>
       </c>
       <c r="I10">
-        <v>2.528304544300604</v>
+        <v>2.528061910520694</v>
       </c>
       <c r="J10">
-        <v>10.20774791080339</v>
+        <v>9.669438189393997</v>
       </c>
       <c r="K10">
-        <v>15.24949206869969</v>
+        <v>13.94171407788698</v>
       </c>
       <c r="L10">
-        <v>5.967008369859941</v>
+        <v>11.41489102498286</v>
       </c>
       <c r="M10">
-        <v>14.75875504173688</v>
+        <v>9.27094340806517</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.845169929569184</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.8830461719217</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.79250541909904</v>
+        <v>16.72973790915473</v>
       </c>
       <c r="C11">
-        <v>10.87880908358046</v>
+        <v>11.21308080213647</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25.53016020806241</v>
+        <v>26.67269196746524</v>
       </c>
       <c r="F11">
-        <v>40.59894978444093</v>
+        <v>39.47506591392159</v>
       </c>
       <c r="G11">
-        <v>26.47871689914361</v>
+        <v>24.38843128704703</v>
       </c>
       <c r="H11">
-        <v>3.150504953192898</v>
+        <v>3.155010063444564</v>
       </c>
       <c r="I11">
-        <v>2.539619278020863</v>
+        <v>2.607665848654829</v>
       </c>
       <c r="J11">
-        <v>9.759133138225039</v>
+        <v>8.955342710259107</v>
       </c>
       <c r="K11">
-        <v>14.43807712424323</v>
+        <v>13.15563093436603</v>
       </c>
       <c r="L11">
-        <v>5.710511985517813</v>
+        <v>10.85220297744115</v>
       </c>
       <c r="M11">
-        <v>15.17718120494866</v>
+        <v>8.683018911015646</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.622544364666501</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.26697622928468</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.02299321915412</v>
+        <v>16.97910709968485</v>
       </c>
       <c r="C12">
-        <v>10.8100194895915</v>
+        <v>11.04011944042255</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.82735993664555</v>
+        <v>23.98055034073324</v>
       </c>
       <c r="F12">
-        <v>37.79338890369937</v>
+        <v>36.6608284933075</v>
       </c>
       <c r="G12">
-        <v>24.72749814058177</v>
+        <v>23.10981709624586</v>
       </c>
       <c r="H12">
-        <v>4.30683814130112</v>
+        <v>4.309253240998822</v>
       </c>
       <c r="I12">
-        <v>2.555612117962487</v>
+        <v>2.619003222446051</v>
       </c>
       <c r="J12">
-        <v>9.430855242019712</v>
+        <v>8.614997413492169</v>
       </c>
       <c r="K12">
-        <v>13.88194297834471</v>
+        <v>12.70286132303199</v>
       </c>
       <c r="L12">
-        <v>5.594740316456133</v>
+        <v>10.55661786191404</v>
       </c>
       <c r="M12">
-        <v>15.29880717094531</v>
+        <v>8.302943675872479</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.549806654256419</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.36644814199758</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.00496588551886</v>
+        <v>16.97727178550031</v>
       </c>
       <c r="C13">
-        <v>10.58926134193426</v>
+        <v>10.75158256905251</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.89967075345324</v>
+        <v>20.94053205000732</v>
       </c>
       <c r="F13">
-        <v>34.69067306192515</v>
+        <v>33.67779545978611</v>
       </c>
       <c r="G13">
-        <v>23.02364004923092</v>
+        <v>21.6020286112296</v>
       </c>
       <c r="H13">
-        <v>5.569013610636132</v>
+        <v>5.571825342549685</v>
       </c>
       <c r="I13">
-        <v>2.518625848333718</v>
+        <v>2.587368613125135</v>
       </c>
       <c r="J13">
-        <v>9.152462678153066</v>
+        <v>8.51032723625398</v>
       </c>
       <c r="K13">
-        <v>13.44406854924641</v>
+        <v>12.45004817855189</v>
       </c>
       <c r="L13">
-        <v>5.57855301647805</v>
+        <v>10.40375615190497</v>
       </c>
       <c r="M13">
-        <v>15.20984746444694</v>
+        <v>8.05429791630538</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.57543183902611</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.26658253601147</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.87837596510775</v>
+        <v>16.86121382758891</v>
       </c>
       <c r="C14">
-        <v>10.37025457146951</v>
+        <v>10.49921792159315</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.7193275662118</v>
+        <v>18.62593215403335</v>
       </c>
       <c r="F14">
-        <v>32.35131004939951</v>
+        <v>31.4796943613831</v>
       </c>
       <c r="G14">
-        <v>21.84170603240197</v>
+        <v>20.44795510751891</v>
       </c>
       <c r="H14">
-        <v>6.489422357684401</v>
+        <v>6.492877174545258</v>
       </c>
       <c r="I14">
-        <v>2.533880002071091</v>
+        <v>2.547846365268922</v>
       </c>
       <c r="J14">
-        <v>8.980096677872847</v>
+        <v>8.516037662655958</v>
       </c>
       <c r="K14">
-        <v>13.19345877485348</v>
+        <v>12.35313152248295</v>
       </c>
       <c r="L14">
-        <v>5.62739530593061</v>
+        <v>10.34763203989208</v>
       </c>
       <c r="M14">
-        <v>15.05273691794984</v>
+        <v>7.938319363461329</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.645757166327687</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.106481094079</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.79159355100298</v>
+        <v>16.77691503391764</v>
       </c>
       <c r="C15">
-        <v>10.29248073571793</v>
+        <v>10.41882652824485</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.1435669874417</v>
+        <v>17.99337606851224</v>
       </c>
       <c r="F15">
-        <v>31.70544116675773</v>
+        <v>30.89336955320939</v>
       </c>
       <c r="G15">
-        <v>21.53792975586403</v>
+        <v>20.11140344440454</v>
       </c>
       <c r="H15">
-        <v>6.698721052392406</v>
+        <v>6.702532271451418</v>
       </c>
       <c r="I15">
-        <v>2.562778690497885</v>
+        <v>2.531301444152651</v>
       </c>
       <c r="J15">
-        <v>8.943798359779228</v>
+        <v>8.548604036712046</v>
       </c>
       <c r="K15">
-        <v>13.14691869493952</v>
+        <v>12.35636244977446</v>
       </c>
       <c r="L15">
-        <v>5.644529148372947</v>
+        <v>10.35014655747864</v>
       </c>
       <c r="M15">
-        <v>14.97039631198659</v>
+        <v>7.929003945790196</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.665549026369624</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.02537811234736</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.26761751708441</v>
+        <v>16.25232410496142</v>
       </c>
       <c r="C16">
-        <v>9.987416094525226</v>
+        <v>10.16277566275384</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.75194019676929</v>
+        <v>17.41003253202825</v>
       </c>
       <c r="F16">
-        <v>31.18588592011705</v>
+        <v>30.57527374320666</v>
       </c>
       <c r="G16">
-        <v>21.6606597035947</v>
+        <v>19.91033179212171</v>
       </c>
       <c r="H16">
-        <v>6.442260271353936</v>
+        <v>6.437988487666868</v>
       </c>
       <c r="I16">
-        <v>2.6824660038936</v>
+        <v>2.595325542234788</v>
       </c>
       <c r="J16">
-        <v>9.037334287598007</v>
+        <v>8.873423479482739</v>
       </c>
       <c r="K16">
-        <v>13.34150889712977</v>
+        <v>12.6464963331807</v>
       </c>
       <c r="L16">
-        <v>5.604812505480596</v>
+        <v>10.53330311932421</v>
       </c>
       <c r="M16">
-        <v>14.53194025655667</v>
+        <v>8.138486237537402</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.61229814282974</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.6049405247848</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.92661302204043</v>
+        <v>15.90728923704934</v>
       </c>
       <c r="C17">
-        <v>9.872111909464222</v>
+        <v>10.09263833726863</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.66814020605033</v>
+        <v>18.2720885364278</v>
       </c>
       <c r="F17">
-        <v>32.06910289262388</v>
+        <v>31.5159689125767</v>
       </c>
       <c r="G17">
-        <v>22.37497011463714</v>
+        <v>20.41280826801584</v>
       </c>
       <c r="H17">
-        <v>5.690818736383459</v>
+        <v>5.684746482322555</v>
       </c>
       <c r="I17">
-        <v>2.747996390921478</v>
+        <v>2.649906760423054</v>
       </c>
       <c r="J17">
-        <v>9.197690968117284</v>
+        <v>9.117625296231486</v>
       </c>
       <c r="K17">
-        <v>13.61573993020082</v>
+        <v>12.91563774084085</v>
       </c>
       <c r="L17">
-        <v>5.53777214968221</v>
+        <v>10.71454287546104</v>
       </c>
       <c r="M17">
-        <v>14.27601414558736</v>
+        <v>8.344777369272428</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.531262588929454</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.3619710007119</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.71724632657969</v>
+        <v>15.68688133905154</v>
       </c>
       <c r="C18">
-        <v>9.891508956996251</v>
+        <v>10.17685044330824</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.80834788795761</v>
+        <v>20.44190243800622</v>
       </c>
       <c r="F18">
-        <v>34.29487881262666</v>
+        <v>33.71101353478615</v>
       </c>
       <c r="G18">
-        <v>23.75928704168513</v>
+        <v>21.54034691601569</v>
       </c>
       <c r="H18">
-        <v>4.453341383219988</v>
+        <v>4.463787597105803</v>
       </c>
       <c r="I18">
-        <v>2.76180279768385</v>
+        <v>2.657844060684754</v>
       </c>
       <c r="J18">
-        <v>9.450111743307266</v>
+        <v>9.369586836788251</v>
       </c>
       <c r="K18">
-        <v>14.02833741783597</v>
+        <v>13.24705398422976</v>
       </c>
       <c r="L18">
-        <v>5.499037426803058</v>
+        <v>10.94926349175979</v>
       </c>
       <c r="M18">
-        <v>14.15092338245427</v>
+        <v>8.608069164087889</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.472873724117346</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.25083483845328</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.62294312837676</v>
+        <v>15.57647804368768</v>
       </c>
       <c r="C19">
-        <v>10.06327250315965</v>
+        <v>10.42742638525264</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.80243242340594</v>
+        <v>23.51197899645165</v>
       </c>
       <c r="F19">
-        <v>37.37153037410339</v>
+        <v>36.70713388399925</v>
       </c>
       <c r="G19">
-        <v>25.46082259335766</v>
+        <v>22.94371491936876</v>
       </c>
       <c r="H19">
-        <v>3.118853058509028</v>
+        <v>3.134179351472958</v>
       </c>
       <c r="I19">
-        <v>2.751380557580341</v>
+        <v>2.650179562783756</v>
       </c>
       <c r="J19">
-        <v>9.742327967840669</v>
+        <v>9.613907610458948</v>
       </c>
       <c r="K19">
-        <v>14.50207432871248</v>
+        <v>13.59347047201219</v>
       </c>
       <c r="L19">
-        <v>5.5738635367858</v>
+        <v>11.20071507504798</v>
       </c>
       <c r="M19">
-        <v>14.15156928637676</v>
+        <v>8.888129540900634</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.519970799723956</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.26567648527721</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.87708854006376</v>
+        <v>15.79900852174491</v>
       </c>
       <c r="C20">
-        <v>10.56506757652607</v>
+        <v>11.04856384420327</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27.79814080449869</v>
+        <v>28.71139371890701</v>
       </c>
       <c r="F20">
-        <v>42.68007506803826</v>
+        <v>41.79730988038796</v>
       </c>
       <c r="G20">
-        <v>28.23323035997449</v>
+        <v>25.29878291750406</v>
       </c>
       <c r="H20">
-        <v>2.302696156505374</v>
+        <v>2.320359781012153</v>
       </c>
       <c r="I20">
-        <v>2.635469876404003</v>
+        <v>2.55319541803634</v>
       </c>
       <c r="J20">
-        <v>10.18090446516605</v>
+        <v>9.837740130025233</v>
       </c>
       <c r="K20">
-        <v>15.21187574726513</v>
+        <v>14.0173732852405</v>
       </c>
       <c r="L20">
-        <v>5.932585144763102</v>
+        <v>11.49205496602648</v>
       </c>
       <c r="M20">
-        <v>14.48822885546886</v>
+        <v>9.27849388001586</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.822732974759106</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.61834811581926</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.81661316307263</v>
+        <v>16.73487660606456</v>
       </c>
       <c r="C21">
-        <v>11.21915041541577</v>
+        <v>11.62408800917553</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>29.76769504921208</v>
+        <v>31.11475769511061</v>
       </c>
       <c r="F21">
-        <v>45.07441714595323</v>
+        <v>43.73240988879677</v>
       </c>
       <c r="G21">
-        <v>28.98660300734212</v>
+        <v>26.72843166331576</v>
       </c>
       <c r="H21">
-        <v>2.66389288345684</v>
+        <v>2.664280498885756</v>
       </c>
       <c r="I21">
-        <v>2.6063148459107</v>
+        <v>2.664592584137512</v>
       </c>
       <c r="J21">
-        <v>10.19081781236513</v>
+        <v>9.052042678935827</v>
       </c>
       <c r="K21">
-        <v>15.15722225736544</v>
+        <v>13.55708858661808</v>
       </c>
       <c r="L21">
-        <v>6.065472452753098</v>
+        <v>11.11355880509862</v>
       </c>
       <c r="M21">
-        <v>15.31181576003508</v>
+        <v>9.05357418351066</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.903674814338329</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.41055020280963</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.41179848239829</v>
+        <v>17.33037985104498</v>
       </c>
       <c r="C22">
-        <v>11.59269470110852</v>
+        <v>11.93630015480689</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>30.76877832386455</v>
+        <v>32.40325193424303</v>
       </c>
       <c r="F22">
-        <v>46.41039193260681</v>
+        <v>44.76210352371849</v>
       </c>
       <c r="G22">
-        <v>29.4696077611494</v>
+        <v>27.75941583588661</v>
       </c>
       <c r="H22">
-        <v>2.883758124020893</v>
+        <v>2.873128887718599</v>
       </c>
       <c r="I22">
-        <v>2.742280578714988</v>
+        <v>2.773574023341208</v>
       </c>
       <c r="J22">
-        <v>10.19875630303928</v>
+        <v>8.576258020505179</v>
       </c>
       <c r="K22">
-        <v>15.12999221387124</v>
+        <v>13.24623745945154</v>
       </c>
       <c r="L22">
-        <v>6.133035090954995</v>
+        <v>10.87084676942295</v>
       </c>
       <c r="M22">
-        <v>15.82015237426165</v>
+        <v>8.903665116717221</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.937330958735731</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.89679204185914</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.10263736760121</v>
+        <v>17.01698281194729</v>
       </c>
       <c r="C23">
-        <v>11.36880774350697</v>
+        <v>11.7658265886106</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>30.20716383225673</v>
+        <v>31.65447245593579</v>
       </c>
       <c r="F23">
-        <v>45.73239750979526</v>
+        <v>44.28206980027377</v>
       </c>
       <c r="G23">
-        <v>29.31081138799964</v>
+        <v>27.17733481981153</v>
       </c>
       <c r="H23">
-        <v>2.767284298397123</v>
+        <v>2.763027562328697</v>
       </c>
       <c r="I23">
-        <v>2.664759505851933</v>
+        <v>2.709857214431343</v>
       </c>
       <c r="J23">
-        <v>10.21294051613514</v>
+        <v>8.902748861343261</v>
       </c>
       <c r="K23">
-        <v>15.18285560644449</v>
+        <v>13.47194318992205</v>
       </c>
       <c r="L23">
-        <v>6.100907593671302</v>
+        <v>11.03664731586747</v>
       </c>
       <c r="M23">
-        <v>15.54598970277679</v>
+        <v>9.037409014804219</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.926697151784023</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.63905509605366</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.8687379918926</v>
+        <v>15.7880608500076</v>
       </c>
       <c r="C24">
-        <v>10.53492815298568</v>
+        <v>11.02975207533055</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.04594582938855</v>
+        <v>28.96953488990602</v>
       </c>
       <c r="F24">
-        <v>43.04086812499265</v>
+        <v>42.14721628442897</v>
       </c>
       <c r="G24">
-        <v>28.5800991264366</v>
+        <v>25.59122580677418</v>
       </c>
       <c r="H24">
-        <v>2.316993100536104</v>
+        <v>2.334538701308948</v>
       </c>
       <c r="I24">
-        <v>2.614917366042824</v>
+        <v>2.528793945322369</v>
       </c>
       <c r="J24">
-        <v>10.24504223525447</v>
+        <v>9.895200832643933</v>
       </c>
       <c r="K24">
-        <v>15.33243382845179</v>
+        <v>14.11212187261584</v>
       </c>
       <c r="L24">
-        <v>5.970206247278711</v>
+        <v>11.55995522062834</v>
       </c>
       <c r="M24">
-        <v>14.47315331413701</v>
+        <v>9.355227896107369</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.855910278248603</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.60561586993727</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.42268055802741</v>
+        <v>14.38852786478772</v>
       </c>
       <c r="C25">
-        <v>9.576886821958254</v>
+        <v>9.953728226644158</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.53474606453903</v>
+        <v>26.29798479723967</v>
       </c>
       <c r="F25">
-        <v>39.98796950149068</v>
+        <v>39.27925434579335</v>
       </c>
       <c r="G25">
-        <v>27.86055414105762</v>
+        <v>25.25263715491434</v>
       </c>
       <c r="H25">
-        <v>1.812151897918108</v>
+        <v>1.845690385820974</v>
       </c>
       <c r="I25">
-        <v>2.945705345299696</v>
+        <v>2.811702806069593</v>
       </c>
       <c r="J25">
-        <v>10.29771197345324</v>
+        <v>10.04390179832376</v>
       </c>
       <c r="K25">
-        <v>15.51960307017411</v>
+        <v>14.46681832173562</v>
       </c>
       <c r="L25">
-        <v>5.822894384482135</v>
+        <v>11.91456296553963</v>
       </c>
       <c r="M25">
-        <v>13.2255639286665</v>
+        <v>9.458315523457607</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.726995959168984</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.3512168093107</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
